--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2315285.48943417</v>
+        <v>2313518.911245051</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4026646.134976066</v>
+        <v>4026646.134976063</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>1.52936184871842</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="E9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="T9" t="n">
         <v>12.73205987707308</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>301.4760113596851</v>
       </c>
       <c r="C11" t="n">
-        <v>284.0150614672121</v>
+        <v>284.015061467212</v>
       </c>
       <c r="D11" t="n">
         <v>273.4252113168875</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>300.6725397684663</v>
       </c>
       <c r="F11" t="n">
         <v>325.618215437916</v>
       </c>
       <c r="G11" t="n">
-        <v>100.245751986154</v>
+        <v>331.3536484151566</v>
       </c>
       <c r="H11" t="n">
-        <v>230.6551176655624</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>25.46330452676465</v>
+        <v>25.46330452676462</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.43517946442934</v>
+        <v>66.43517946442932</v>
       </c>
       <c r="T11" t="n">
-        <v>130.0570338800447</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>169.8725219003464</v>
       </c>
       <c r="V11" t="n">
-        <v>246.4944281663394</v>
+        <v>95.91627547553259</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.9831384136176</v>
       </c>
       <c r="X11" t="n">
-        <v>288.4732703746736</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>304.9801083522581</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.57414987814182</v>
+        <v>98.57414987814181</v>
       </c>
       <c r="C13" t="n">
-        <v>85.98899079483236</v>
+        <v>85.98899079483235</v>
       </c>
       <c r="D13" t="n">
-        <v>67.35764271441688</v>
+        <v>67.35764271441687</v>
       </c>
       <c r="E13" t="n">
-        <v>65.1761323427737</v>
+        <v>65.17613234277368</v>
       </c>
       <c r="F13" t="n">
-        <v>64.16321771913577</v>
+        <v>64.16321771913576</v>
       </c>
       <c r="G13" t="n">
-        <v>85.52594300858857</v>
+        <v>85.52594300858856</v>
       </c>
       <c r="H13" t="n">
-        <v>70.23618299399797</v>
+        <v>70.23618299399794</v>
       </c>
       <c r="I13" t="n">
-        <v>37.88866643787036</v>
+        <v>37.88866643787035</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.75518740168715</v>
+        <v>41.75518740168714</v>
       </c>
       <c r="S13" t="n">
         <v>121.7204587302201</v>
@@ -1613,19 +1613,19 @@
         <v>273.4252113168875</v>
       </c>
       <c r="E14" t="n">
-        <v>300.6725397684663</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>212.702636667666</v>
       </c>
       <c r="G14" t="n">
-        <v>331.3536484151565</v>
+        <v>331.3536484151566</v>
       </c>
       <c r="H14" t="n">
-        <v>230.6551176655624</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>25.46330452676463</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.43517946442932</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>160.2025144852678</v>
+        <v>169.8725219003464</v>
       </c>
       <c r="V14" t="n">
         <v>246.4944281663394</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.9831384136176</v>
       </c>
       <c r="X14" t="n">
         <v>288.4732703746736</v>
@@ -1704,7 +1704,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I15" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S15" t="n">
         <v>144.9367239415126</v>
@@ -1783,7 +1783,7 @@
         <v>70.23618299399794</v>
       </c>
       <c r="I16" t="n">
-        <v>37.88866643787036</v>
+        <v>37.88866643787035</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.75518740168715</v>
+        <v>41.75518740168714</v>
       </c>
       <c r="S16" t="n">
         <v>121.7204587302201</v>
@@ -1853,7 +1853,7 @@
         <v>275.2092352417017</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>300.1549109111513</v>
       </c>
       <c r="G17" t="n">
         <v>305.8903438883919</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.97187493766471</v>
       </c>
       <c r="T17" t="n">
-        <v>27.90650849247997</v>
+        <v>104.5937293532801</v>
       </c>
       <c r="U17" t="n">
-        <v>144.4092173735817</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>221.0311236395748</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>242.5198338868529</v>
+        <v>190.1461681903914</v>
       </c>
       <c r="X17" t="n">
         <v>263.0099658479089</v>
@@ -1941,7 +1941,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I18" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S18" t="n">
         <v>144.9367239415126</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.11084535137717</v>
+        <v>73.11084535137719</v>
       </c>
       <c r="C19" t="n">
-        <v>60.5256862680677</v>
+        <v>60.52568626806773</v>
       </c>
       <c r="D19" t="n">
-        <v>41.89433818765222</v>
+        <v>41.89433818765225</v>
       </c>
       <c r="E19" t="n">
-        <v>39.71282781600904</v>
+        <v>39.71282781600907</v>
       </c>
       <c r="F19" t="n">
-        <v>38.69991319237111</v>
+        <v>38.69991319237114</v>
       </c>
       <c r="G19" t="n">
-        <v>60.06263848182391</v>
+        <v>60.06263848182394</v>
       </c>
       <c r="H19" t="n">
-        <v>44.7728784672333</v>
+        <v>44.77287846723333</v>
       </c>
       <c r="I19" t="n">
-        <v>12.42536191110571</v>
+        <v>12.42536191110573</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.2918828749225</v>
+        <v>16.29188287492252</v>
       </c>
       <c r="S19" t="n">
-        <v>96.25715420345546</v>
+        <v>96.25715420345549</v>
       </c>
       <c r="T19" t="n">
         <v>116.0663924008567</v>
@@ -2081,7 +2081,7 @@
         <v>276.0127068329205</v>
       </c>
       <c r="C20" t="n">
-        <v>258.5517569404474</v>
+        <v>207.334478161349</v>
       </c>
       <c r="D20" t="n">
         <v>247.9619067901228</v>
@@ -2090,10 +2090,10 @@
         <v>275.2092352417017</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>300.1549109111513</v>
       </c>
       <c r="G20" t="n">
-        <v>229.2031230275917</v>
+        <v>305.8903438883919</v>
       </c>
       <c r="H20" t="n">
         <v>205.1918131387977</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>104.5937293532801</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>144.4092173735817</v>
       </c>
       <c r="V20" t="n">
-        <v>221.0311236395748</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>242.5198338868529</v>
@@ -2178,7 +2178,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I21" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S21" t="n">
         <v>144.9367239415126</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.11084535137717</v>
+        <v>73.11084535137719</v>
       </c>
       <c r="C22" t="n">
-        <v>60.5256862680677</v>
+        <v>60.52568626806773</v>
       </c>
       <c r="D22" t="n">
-        <v>41.89433818765222</v>
+        <v>41.89433818765225</v>
       </c>
       <c r="E22" t="n">
-        <v>39.71282781600904</v>
+        <v>39.71282781600907</v>
       </c>
       <c r="F22" t="n">
-        <v>38.69991319237111</v>
+        <v>38.69991319237114</v>
       </c>
       <c r="G22" t="n">
-        <v>60.06263848182391</v>
+        <v>60.06263848182394</v>
       </c>
       <c r="H22" t="n">
-        <v>44.7728784672333</v>
+        <v>44.77287846723333</v>
       </c>
       <c r="I22" t="n">
-        <v>12.42536191110571</v>
+        <v>12.42536191110573</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.2918828749225</v>
+        <v>16.29188287492252</v>
       </c>
       <c r="S22" t="n">
-        <v>96.25715420345546</v>
+        <v>96.25715420345549</v>
       </c>
       <c r="T22" t="n">
         <v>116.0663924008567</v>
@@ -2415,7 +2415,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I24" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S24" t="n">
         <v>144.9367239415126</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.11084535137717</v>
+        <v>73.11084535137719</v>
       </c>
       <c r="C25" t="n">
-        <v>60.5256862680677</v>
+        <v>60.52568626806773</v>
       </c>
       <c r="D25" t="n">
-        <v>41.89433818765222</v>
+        <v>41.89433818765225</v>
       </c>
       <c r="E25" t="n">
-        <v>39.71282781600904</v>
+        <v>39.71282781600907</v>
       </c>
       <c r="F25" t="n">
-        <v>38.69991319237111</v>
+        <v>38.69991319237114</v>
       </c>
       <c r="G25" t="n">
-        <v>60.06263848182391</v>
+        <v>60.06263848182394</v>
       </c>
       <c r="H25" t="n">
-        <v>44.7728784672333</v>
+        <v>44.77287846723333</v>
       </c>
       <c r="I25" t="n">
-        <v>12.42536191110571</v>
+        <v>12.42536191110573</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.2918828749225</v>
+        <v>16.29188287492252</v>
       </c>
       <c r="S25" t="n">
-        <v>96.25715420345546</v>
+        <v>96.25715420345549</v>
       </c>
       <c r="T25" t="n">
         <v>116.0663924008567</v>
@@ -2555,7 +2555,7 @@
         <v>328.388042189775</v>
       </c>
       <c r="C26" t="n">
-        <v>310.9270922973019</v>
+        <v>310.927092297302</v>
       </c>
       <c r="D26" t="n">
         <v>300.3372421469774</v>
@@ -2564,16 +2564,16 @@
         <v>327.5845705985562</v>
       </c>
       <c r="F26" t="n">
-        <v>352.5302462680058</v>
+        <v>352.5302462680059</v>
       </c>
       <c r="G26" t="n">
-        <v>358.2656792452464</v>
+        <v>358.2656792452465</v>
       </c>
       <c r="H26" t="n">
-        <v>257.5671484956522</v>
+        <v>257.5671484956523</v>
       </c>
       <c r="I26" t="n">
-        <v>52.37533535685449</v>
+        <v>52.37533535685456</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>93.34721029451921</v>
+        <v>93.34721029451927</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9690647101346</v>
+        <v>156.9690647101347</v>
       </c>
       <c r="U26" t="n">
-        <v>196.7845527304362</v>
+        <v>196.7845527304363</v>
       </c>
       <c r="V26" t="n">
-        <v>273.4064589964293</v>
+        <v>273.4064589964294</v>
       </c>
       <c r="W26" t="n">
-        <v>294.8951692437074</v>
+        <v>294.8951692437075</v>
       </c>
       <c r="X26" t="n">
-        <v>315.3853012047634</v>
+        <v>315.3853012047635</v>
       </c>
       <c r="Y26" t="n">
-        <v>331.8921391823479</v>
+        <v>331.892139182348</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I27" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S27" t="n">
         <v>144.9367239415126</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.4861807082317</v>
+        <v>125.4861807082318</v>
       </c>
       <c r="C28" t="n">
-        <v>112.9010216249222</v>
+        <v>112.9010216249223</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.0773595367239</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>112.4379738386784</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>148.63248956031</v>
       </c>
       <c r="T28" t="n">
         <v>168.4417277577112</v>
       </c>
       <c r="U28" t="n">
-        <v>231.9073822802721</v>
+        <v>231.9073822802722</v>
       </c>
       <c r="V28" t="n">
-        <v>197.7918438501224</v>
+        <v>197.7918438501225</v>
       </c>
       <c r="W28" t="n">
-        <v>232.1771988628854</v>
+        <v>232.1771988628855</v>
       </c>
       <c r="X28" t="n">
-        <v>171.3638559153315</v>
+        <v>171.3638559153316</v>
       </c>
       <c r="Y28" t="n">
-        <v>164.2388538783892</v>
+        <v>143.1216976934807</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>328.3880421897751</v>
+        <v>328.388042189775</v>
       </c>
       <c r="C29" t="n">
-        <v>310.9270922973021</v>
+        <v>310.927092297302</v>
       </c>
       <c r="D29" t="n">
-        <v>300.3372421469775</v>
+        <v>300.3372421469774</v>
       </c>
       <c r="E29" t="n">
-        <v>327.5845705985563</v>
+        <v>327.5845705985562</v>
       </c>
       <c r="F29" t="n">
-        <v>352.530246268006</v>
+        <v>352.5302462680059</v>
       </c>
       <c r="G29" t="n">
         <v>358.2656792452465</v>
       </c>
       <c r="H29" t="n">
-        <v>257.5671484956524</v>
+        <v>257.5671484956523</v>
       </c>
       <c r="I29" t="n">
-        <v>52.37533535685463</v>
+        <v>52.37533535685456</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>93.34721029451936</v>
+        <v>93.34721029451927</v>
       </c>
       <c r="T29" t="n">
         <v>156.9690647101347</v>
       </c>
       <c r="U29" t="n">
-        <v>196.7845527304364</v>
+        <v>196.7845527304363</v>
       </c>
       <c r="V29" t="n">
         <v>273.4064589964294</v>
@@ -2855,10 +2855,10 @@
         <v>294.8951692437075</v>
       </c>
       <c r="X29" t="n">
-        <v>315.3853012047636</v>
+        <v>315.3853012047635</v>
       </c>
       <c r="Y29" t="n">
-        <v>331.8921391823481</v>
+        <v>331.892139182348</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I30" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S30" t="n">
         <v>144.9367239415126</v>
@@ -2950,25 +2950,25 @@
         <v>125.4861807082318</v>
       </c>
       <c r="C31" t="n">
-        <v>34.27678366734983</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>94.26967354450687</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>92.08816317286369</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>91.07524854922576</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>112.4379738386785</v>
       </c>
       <c r="H31" t="n">
-        <v>97.14821382408795</v>
+        <v>63.17768389368529</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>64.80069726796029</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>168.4417277577112</v>
       </c>
       <c r="U31" t="n">
-        <v>231.9073822802723</v>
+        <v>231.9073822802722</v>
       </c>
       <c r="V31" t="n">
         <v>197.7918438501225</v>
@@ -3013,10 +3013,10 @@
         <v>232.1771988628855</v>
       </c>
       <c r="X31" t="n">
-        <v>171.3638559153317</v>
+        <v>171.3638559153316</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.2388538783893</v>
+        <v>164.2388538783892</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3038,16 @@
         <v>323.6254463486405</v>
       </c>
       <c r="F32" t="n">
-        <v>348.5711220180902</v>
+        <v>348.5711220180901</v>
       </c>
       <c r="G32" t="n">
-        <v>354.3065549953308</v>
+        <v>354.3065549953307</v>
       </c>
       <c r="H32" t="n">
-        <v>253.6080242457366</v>
+        <v>253.6080242457365</v>
       </c>
       <c r="I32" t="n">
-        <v>48.41621110693888</v>
+        <v>48.41621110693882</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.38808604460358</v>
+        <v>89.38808604460354</v>
       </c>
       <c r="T32" t="n">
-        <v>153.009940460219</v>
+        <v>153.0099404602189</v>
       </c>
       <c r="U32" t="n">
-        <v>192.8254284805206</v>
+        <v>192.8254284805205</v>
       </c>
       <c r="V32" t="n">
-        <v>269.4473347465137</v>
+        <v>269.4473347465136</v>
       </c>
       <c r="W32" t="n">
-        <v>290.9360449937918</v>
+        <v>290.9360449937917</v>
       </c>
       <c r="X32" t="n">
-        <v>311.4261769548478</v>
+        <v>311.4261769548477</v>
       </c>
       <c r="Y32" t="n">
         <v>327.9330149324323</v>
@@ -3126,7 +3126,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I33" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S33" t="n">
         <v>144.9367239415126</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.5270564583161</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>108.9418973750066</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>90.31054929459111</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>88.12903892294793</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>87.11612429931</v>
+        <v>87.11612429930996</v>
       </c>
       <c r="G34" t="n">
         <v>108.4788495887628</v>
       </c>
       <c r="H34" t="n">
-        <v>93.1890895741722</v>
+        <v>80.43164342832259</v>
       </c>
       <c r="I34" t="n">
-        <v>39.3459725948443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>64.7080939818614</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>144.6733653103943</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>164.4826035077955</v>
       </c>
       <c r="U34" t="n">
-        <v>227.9482580303565</v>
+        <v>227.9482580303564</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>193.8327196002067</v>
       </c>
       <c r="W34" t="n">
-        <v>228.2180746129698</v>
+        <v>228.2180746129697</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>167.4047316654159</v>
       </c>
       <c r="Y34" t="n">
         <v>160.2797296284735</v>
@@ -3284,7 +3284,7 @@
         <v>230.6551176655624</v>
       </c>
       <c r="I35" t="n">
-        <v>25.46330452676465</v>
+        <v>25.46330452676463</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.43517946442935</v>
+        <v>66.43517946442934</v>
       </c>
       <c r="T35" t="n">
         <v>130.0570338800447</v>
@@ -3363,7 +3363,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I36" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S36" t="n">
         <v>144.9367239415126</v>
@@ -3439,10 +3439,10 @@
         <v>85.52594300858856</v>
       </c>
       <c r="H37" t="n">
-        <v>70.23618299399797</v>
+        <v>70.23618299399796</v>
       </c>
       <c r="I37" t="n">
-        <v>37.88866643787037</v>
+        <v>37.88866643787036</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75518740168716</v>
+        <v>41.75518740168715</v>
       </c>
       <c r="S37" t="n">
         <v>121.7204587302201</v>
@@ -3503,7 +3503,7 @@
         <v>301.4760113596851</v>
       </c>
       <c r="C38" t="n">
-        <v>284.015061467212</v>
+        <v>284.0150614672121</v>
       </c>
       <c r="D38" t="n">
         <v>273.4252113168875</v>
@@ -3515,13 +3515,13 @@
         <v>325.618215437916</v>
       </c>
       <c r="G38" t="n">
-        <v>331.3536484151565</v>
+        <v>331.3536484151566</v>
       </c>
       <c r="H38" t="n">
         <v>230.6551176655624</v>
       </c>
       <c r="I38" t="n">
-        <v>25.46330452676463</v>
+        <v>25.46330452676465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I39" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S39" t="n">
         <v>144.9367239415126</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.57414987814181</v>
+        <v>98.57414987814184</v>
       </c>
       <c r="C40" t="n">
-        <v>85.98899079483235</v>
+        <v>85.98899079483238</v>
       </c>
       <c r="D40" t="n">
-        <v>67.35764271441687</v>
+        <v>67.3576427144169</v>
       </c>
       <c r="E40" t="n">
-        <v>65.17613234277368</v>
+        <v>65.17613234277371</v>
       </c>
       <c r="F40" t="n">
-        <v>64.16321771913576</v>
+        <v>64.16321771913579</v>
       </c>
       <c r="G40" t="n">
-        <v>85.52594300858854</v>
+        <v>85.52594300858858</v>
       </c>
       <c r="H40" t="n">
-        <v>70.23618299399794</v>
+        <v>70.23618299399797</v>
       </c>
       <c r="I40" t="n">
-        <v>37.88866643787036</v>
+        <v>37.88866643787038</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75518740168715</v>
+        <v>41.75518740168717</v>
       </c>
       <c r="S40" t="n">
         <v>121.7204587302201</v>
@@ -3758,7 +3758,7 @@
         <v>230.6551176655624</v>
       </c>
       <c r="I41" t="n">
-        <v>25.46330452676469</v>
+        <v>25.46330452676465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.4351794644294</v>
+        <v>66.43517946442935</v>
       </c>
       <c r="T41" t="n">
-        <v>130.0570338800448</v>
+        <v>130.0570338800447</v>
       </c>
       <c r="U41" t="n">
         <v>169.8725219003464</v>
       </c>
       <c r="V41" t="n">
-        <v>246.4944281663395</v>
+        <v>246.4944281663394</v>
       </c>
       <c r="W41" t="n">
         <v>267.9831384136176</v>
@@ -3806,7 +3806,7 @@
         <v>288.4732703746736</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.9801083522582</v>
+        <v>304.9801083522581</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I42" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S42" t="n">
         <v>144.9367239415126</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.57414987814187</v>
+        <v>98.57414987814184</v>
       </c>
       <c r="C43" t="n">
-        <v>85.9889907948324</v>
+        <v>85.98899079483238</v>
       </c>
       <c r="D43" t="n">
-        <v>67.35764271441693</v>
+        <v>67.3576427144169</v>
       </c>
       <c r="E43" t="n">
-        <v>65.17613234277374</v>
+        <v>65.17613234277371</v>
       </c>
       <c r="F43" t="n">
-        <v>64.16321771913582</v>
+        <v>64.16321771913579</v>
       </c>
       <c r="G43" t="n">
-        <v>85.52594300858861</v>
+        <v>85.52594300858858</v>
       </c>
       <c r="H43" t="n">
-        <v>70.23618299399801</v>
+        <v>70.23618299399797</v>
       </c>
       <c r="I43" t="n">
-        <v>37.88866643787041</v>
+        <v>37.88866643786909</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.7551874016872</v>
+        <v>41.75518740168717</v>
       </c>
       <c r="S43" t="n">
-        <v>121.7204587302185</v>
+        <v>121.7204587302201</v>
       </c>
       <c r="T43" t="n">
-        <v>141.5296969276214</v>
+        <v>141.5296969276213</v>
       </c>
       <c r="U43" t="n">
         <v>204.9953514501823</v>
       </c>
       <c r="V43" t="n">
-        <v>170.8798130200326</v>
+        <v>170.8798130200325</v>
       </c>
       <c r="W43" t="n">
-        <v>205.2651680327956</v>
+        <v>205.2651680327955</v>
       </c>
       <c r="X43" t="n">
         <v>144.4518250852417</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.3268230482994</v>
+        <v>137.3268230482993</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>301.4760113596851</v>
       </c>
       <c r="C44" t="n">
-        <v>284.015061467212</v>
+        <v>284.0150614672121</v>
       </c>
       <c r="D44" t="n">
         <v>273.4252113168875</v>
@@ -3995,7 +3995,7 @@
         <v>230.6551176655624</v>
       </c>
       <c r="I44" t="n">
-        <v>25.46330452676463</v>
+        <v>25.46330452676465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.43517946442934</v>
+        <v>66.43517946442935</v>
       </c>
       <c r="T44" t="n">
         <v>130.0570338800447</v>
@@ -4074,7 +4074,7 @@
         <v>98.32855482647517</v>
       </c>
       <c r="I45" t="n">
-        <v>39.81939312904125</v>
+        <v>39.81939312904124</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.75459778195216</v>
+        <v>10.75459778195214</v>
       </c>
       <c r="S45" t="n">
         <v>144.9367239415126</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.57414987814181</v>
+        <v>98.57414987814184</v>
       </c>
       <c r="C46" t="n">
-        <v>85.98899079483235</v>
+        <v>85.98899079483238</v>
       </c>
       <c r="D46" t="n">
-        <v>67.35764271441687</v>
+        <v>67.3576427144169</v>
       </c>
       <c r="E46" t="n">
-        <v>65.17613234277368</v>
+        <v>65.17613234277371</v>
       </c>
       <c r="F46" t="n">
-        <v>64.16321771913576</v>
+        <v>64.16321771913579</v>
       </c>
       <c r="G46" t="n">
-        <v>85.52594300858856</v>
+        <v>85.52594300858858</v>
       </c>
       <c r="H46" t="n">
-        <v>70.23618299399796</v>
+        <v>70.23618299399797</v>
       </c>
       <c r="I46" t="n">
-        <v>37.88866643787036</v>
+        <v>37.88866643787038</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75518740168715</v>
+        <v>41.75518740168717</v>
       </c>
       <c r="S46" t="n">
         <v>121.7204587302201</v>
@@ -4189,7 +4189,7 @@
         <v>141.5296969276213</v>
       </c>
       <c r="U46" t="n">
-        <v>204.9953514501822</v>
+        <v>204.9953514501823</v>
       </c>
       <c r="V46" t="n">
         <v>170.8798130200325</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="C8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="D8" t="n">
+        <v>59.66614011233978</v>
+      </c>
+      <c r="E8" t="n">
+        <v>59.66614011233978</v>
+      </c>
+      <c r="F8" t="n">
         <v>44.20882949099123</v>
       </c>
-      <c r="E8" t="n">
-        <v>44.20882949099123</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>28.75151886964269</v>
       </c>
-      <c r="G8" t="n">
-        <v>13.29420824829416</v>
-      </c>
       <c r="H8" t="n">
-        <v>13.29420824829416</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="I8" t="n">
         <v>13.29420824829416</v>
@@ -4808,13 +4808,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
         <v>61.2109500605402</v>
@@ -4823,31 +4823,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="U8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="V8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="W8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="X8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.11933469231312</v>
+        <v>59.66614011233978</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="C9" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="D9" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E9" t="n">
         <v>17.43566227534506</v>
       </c>
       <c r="F9" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G9" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H9" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="I9" t="n">
         <v>1.978351653996518</v>
@@ -4884,19 +4884,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>30.9115297805728</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M9" t="n">
         <v>30.9115297805728</v>
       </c>
       <c r="N9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
         <v>46.0612399205565</v>
@@ -4905,28 +4905,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>48.35028351804213</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>48.35028351804213</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T9" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="U9" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="V9" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="W9" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="X9" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="C10" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="E10" t="n">
         <v>47.59615086525642</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="n">
         <v>32.13884024390788</v>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>16.68152962255934</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
         <v>1.224219001210804</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.573936786696</v>
+        <v>1612.740925202763</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.690036314764</v>
+        <v>1325.857024730831</v>
       </c>
       <c r="D11" t="n">
-        <v>745.5029541764941</v>
+        <v>1049.669942592561</v>
       </c>
       <c r="E11" t="n">
-        <v>745.5029541764941</v>
+        <v>745.9603064627972</v>
       </c>
       <c r="F11" t="n">
-        <v>416.5956658553668</v>
+        <v>417.05301814167</v>
       </c>
       <c r="G11" t="n">
-        <v>315.3373305158173</v>
+        <v>82.35236317686535</v>
       </c>
       <c r="H11" t="n">
-        <v>82.35236317686542</v>
+        <v>82.35236317686535</v>
       </c>
       <c r="I11" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J11" t="n">
         <v>270.9351110828175</v>
@@ -5045,46 +5045,46 @@
         <v>712.8649459777557</v>
       </c>
       <c r="L11" t="n">
-        <v>994.7802384456809</v>
+        <v>899.9100094113334</v>
       </c>
       <c r="M11" t="n">
-        <v>1234.573348684999</v>
+        <v>1584.721517808556</v>
       </c>
       <c r="N11" t="n">
-        <v>1482.860370522802</v>
+        <v>1833.008539646358</v>
       </c>
       <c r="O11" t="n">
-        <v>2080.967682855877</v>
+        <v>2080.967682855875</v>
       </c>
       <c r="P11" t="n">
-        <v>2553.764053322895</v>
+        <v>2553.764053322893</v>
       </c>
       <c r="Q11" t="n">
-        <v>2831.592677693541</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="R11" t="n">
-        <v>2831.592677693541</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="S11" t="n">
-        <v>2764.486435810279</v>
+        <v>2764.486435810277</v>
       </c>
       <c r="T11" t="n">
-        <v>2633.115694517305</v>
+        <v>2764.486435810277</v>
       </c>
       <c r="U11" t="n">
-        <v>2461.527288557359</v>
+        <v>2592.898029850332</v>
       </c>
       <c r="V11" t="n">
-        <v>2212.543017682268</v>
+        <v>2496.012903107369</v>
       </c>
       <c r="W11" t="n">
-        <v>2212.543017682268</v>
+        <v>2225.322864305735</v>
       </c>
       <c r="X11" t="n">
-        <v>1921.155875889669</v>
+        <v>2225.322864305735</v>
       </c>
       <c r="Y11" t="n">
-        <v>1613.095160382337</v>
+        <v>1917.262148798404</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>196.1752353271197</v>
       </c>
       <c r="H12" t="n">
-        <v>96.8534627751246</v>
+        <v>96.85346277512457</v>
       </c>
       <c r="I12" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J12" t="n">
-        <v>190.5760259308193</v>
+        <v>190.5760259308192</v>
       </c>
       <c r="K12" t="n">
         <v>546.1287939517205</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.617764779503</v>
+        <v>718.4858229290788</v>
       </c>
       <c r="M12" t="n">
-        <v>1306.107156212491</v>
+        <v>1400.023227474567</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.840890665797</v>
+        <v>2028.591010153295</v>
       </c>
       <c r="O12" t="n">
-        <v>1911.317409873313</v>
+        <v>2226.595550826851</v>
       </c>
       <c r="P12" t="n">
         <v>2366.178584862764</v>
@@ -5176,7 +5176,7 @@
         <v>537.7801121514623</v>
       </c>
       <c r="C13" t="n">
-        <v>450.9225456920356</v>
+        <v>450.9225456920357</v>
       </c>
       <c r="D13" t="n">
         <v>382.8845227481802</v>
@@ -5185,16 +5185,16 @@
         <v>317.0500456342673</v>
       </c>
       <c r="F13" t="n">
-        <v>252.2387146048372</v>
+        <v>252.2387146048373</v>
       </c>
       <c r="G13" t="n">
         <v>165.8488731820206</v>
       </c>
       <c r="H13" t="n">
-        <v>94.90323379414392</v>
+        <v>94.90323379414387</v>
       </c>
       <c r="I13" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J13" t="n">
         <v>129.14749002203</v>
@@ -5230,16 +5230,16 @@
         <v>1508.985294489536</v>
       </c>
       <c r="U13" t="n">
-        <v>1301.919282923696</v>
+        <v>1301.919282923695</v>
       </c>
       <c r="V13" t="n">
         <v>1129.313411186289</v>
       </c>
       <c r="W13" t="n">
-        <v>921.9748576178087</v>
+        <v>921.9748576178085</v>
       </c>
       <c r="X13" t="n">
-        <v>776.0639231882716</v>
+        <v>776.0639231882715</v>
       </c>
       <c r="Y13" t="n">
         <v>637.3499605132217</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1516.818604220588</v>
+        <v>1169.254639278035</v>
       </c>
       <c r="C14" t="n">
-        <v>1229.934703748656</v>
+        <v>882.3707388061036</v>
       </c>
       <c r="D14" t="n">
-        <v>953.747621610386</v>
+        <v>606.183656667833</v>
       </c>
       <c r="E14" t="n">
-        <v>650.037985480622</v>
+        <v>606.183656667833</v>
       </c>
       <c r="F14" t="n">
-        <v>650.037985480622</v>
+        <v>391.3325085186754</v>
       </c>
       <c r="G14" t="n">
-        <v>315.3373305158173</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="H14" t="n">
-        <v>82.35236317686542</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="I14" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J14" t="n">
-        <v>270.9351110828175</v>
+        <v>103.5294620624644</v>
       </c>
       <c r="K14" t="n">
-        <v>712.8649459777556</v>
+        <v>279.857838529059</v>
       </c>
       <c r="L14" t="n">
-        <v>994.780238445681</v>
+        <v>880.3875043675826</v>
       </c>
       <c r="M14" t="n">
-        <v>1234.573348684999</v>
+        <v>1120.180614606901</v>
       </c>
       <c r="N14" t="n">
-        <v>1482.860370522802</v>
+        <v>1801.441091612568</v>
       </c>
       <c r="O14" t="n">
-        <v>2080.967682855877</v>
+        <v>2399.548403945643</v>
       </c>
       <c r="P14" t="n">
-        <v>2553.764053322895</v>
+        <v>2553.764053322893</v>
       </c>
       <c r="Q14" t="n">
-        <v>2831.592677693541</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="R14" t="n">
-        <v>2831.592677693541</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="S14" t="n">
-        <v>2831.592677693541</v>
+        <v>2764.486435810277</v>
       </c>
       <c r="T14" t="n">
-        <v>2831.592677693541</v>
+        <v>2764.486435810277</v>
       </c>
       <c r="U14" t="n">
-        <v>2669.771955991251</v>
+        <v>2592.898029850332</v>
       </c>
       <c r="V14" t="n">
-        <v>2420.78768511616</v>
+        <v>2343.913758975241</v>
       </c>
       <c r="W14" t="n">
-        <v>2420.78768511616</v>
+        <v>2073.223720173607</v>
       </c>
       <c r="X14" t="n">
-        <v>2129.400543323561</v>
+        <v>1781.836578381008</v>
       </c>
       <c r="Y14" t="n">
-        <v>1821.339827816229</v>
+        <v>1473.775862873676</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.6110173097687</v>
+        <v>962.6110173097685</v>
       </c>
       <c r="C15" t="n">
-        <v>788.1579880286417</v>
+        <v>788.1579880286415</v>
       </c>
       <c r="D15" t="n">
-        <v>639.2235783673905</v>
+        <v>639.2235783673902</v>
       </c>
       <c r="E15" t="n">
-        <v>479.9861233619349</v>
+        <v>479.9861233619348</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4515653888199</v>
+        <v>333.4515653888198</v>
       </c>
       <c r="G15" t="n">
         <v>196.1752353271197</v>
       </c>
       <c r="H15" t="n">
-        <v>96.85346277512461</v>
+        <v>96.85346277512457</v>
       </c>
       <c r="I15" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J15" t="n">
         <v>190.5760259308192</v>
@@ -5370,10 +5370,10 @@
         <v>1546.840890665797</v>
       </c>
       <c r="O15" t="n">
-        <v>1911.317409873314</v>
+        <v>1911.317409873313</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.178584862765</v>
+        <v>2366.178584862764</v>
       </c>
       <c r="Q15" t="n">
         <v>2617.543465036115</v>
@@ -5388,7 +5388,7 @@
         <v>2263.955546039952</v>
       </c>
       <c r="U15" t="n">
-        <v>2035.827618260268</v>
+        <v>2035.827618260267</v>
       </c>
       <c r="V15" t="n">
         <v>1800.675510028525</v>
@@ -5397,10 +5397,10 @@
         <v>1546.438153300323</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.586653094791</v>
+        <v>1338.58665309479</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130.826354329837</v>
+        <v>1130.826354329836</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>537.7801121514622</v>
+        <v>537.7801121514623</v>
       </c>
       <c r="C16" t="n">
-        <v>450.9225456920355</v>
+        <v>450.9225456920356</v>
       </c>
       <c r="D16" t="n">
-        <v>382.8845227481801</v>
+        <v>382.8845227481802</v>
       </c>
       <c r="E16" t="n">
-        <v>317.0500456342672</v>
+        <v>317.0500456342673</v>
       </c>
       <c r="F16" t="n">
-        <v>252.238714604837</v>
+        <v>252.2387146048373</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8488731820203</v>
+        <v>165.8488731820206</v>
       </c>
       <c r="H16" t="n">
-        <v>94.90323379414355</v>
+        <v>94.90323379414387</v>
       </c>
       <c r="I16" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J16" t="n">
         <v>129.14749002203</v>
       </c>
       <c r="K16" t="n">
-        <v>326.3987845346776</v>
+        <v>326.3987845346775</v>
       </c>
       <c r="L16" t="n">
-        <v>611.8419906407016</v>
+        <v>611.8419906407015</v>
       </c>
       <c r="M16" t="n">
         <v>918.8179655058784</v>
@@ -5449,7 +5449,7 @@
         <v>1225.842162524254</v>
       </c>
       <c r="O16" t="n">
-        <v>1499.553447599238</v>
+        <v>1499.553447599239</v>
       </c>
       <c r="P16" t="n">
         <v>1721.850496405043</v>
@@ -5467,19 +5467,19 @@
         <v>1508.985294489536</v>
       </c>
       <c r="U16" t="n">
-        <v>1301.919282923695</v>
+        <v>1301.919282923696</v>
       </c>
       <c r="V16" t="n">
         <v>1129.313411186289</v>
       </c>
       <c r="W16" t="n">
-        <v>921.9748576178085</v>
+        <v>921.9748576178088</v>
       </c>
       <c r="X16" t="n">
-        <v>776.0639231882715</v>
+        <v>776.0639231882717</v>
       </c>
       <c r="Y16" t="n">
-        <v>637.3499605132216</v>
+        <v>637.3499605132217</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1362.49554648262</v>
+        <v>1665.682325180752</v>
       </c>
       <c r="C17" t="n">
-        <v>1101.332155633683</v>
+        <v>1404.518934331815</v>
       </c>
       <c r="D17" t="n">
-        <v>850.8655831184074</v>
+        <v>1154.052361816539</v>
       </c>
       <c r="E17" t="n">
-        <v>572.876456611638</v>
+        <v>876.0632353097701</v>
       </c>
       <c r="F17" t="n">
-        <v>572.876456611638</v>
+        <v>572.8764566116374</v>
       </c>
       <c r="G17" t="n">
-        <v>263.8963112698279</v>
+        <v>263.8963112698281</v>
       </c>
       <c r="H17" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="I17" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J17" t="n">
         <v>270.9351110828175</v>
       </c>
       <c r="K17" t="n">
-        <v>458.5158835294079</v>
+        <v>391.9609875323026</v>
       </c>
       <c r="L17" t="n">
-        <v>645.5609469629856</v>
+        <v>992.4906533708261</v>
       </c>
       <c r="M17" t="n">
-        <v>1330.372455360208</v>
+        <v>1677.302161768049</v>
       </c>
       <c r="N17" t="n">
-        <v>2011.632932365875</v>
+        <v>2358.562638773715</v>
       </c>
       <c r="O17" t="n">
-        <v>2609.74024469895</v>
+        <v>2579.677771656673</v>
       </c>
       <c r="P17" t="n">
-        <v>2763.9558940762</v>
+        <v>2733.893421033923</v>
       </c>
       <c r="Q17" t="n">
-        <v>2831.592677693541</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="R17" t="n">
-        <v>2831.592677693541</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="S17" t="n">
-        <v>2831.592677693541</v>
+        <v>2790.206945433272</v>
       </c>
       <c r="T17" t="n">
-        <v>2803.404285276895</v>
+        <v>2684.556713763292</v>
       </c>
       <c r="U17" t="n">
-        <v>2657.536388939944</v>
+        <v>2684.556713763292</v>
       </c>
       <c r="V17" t="n">
-        <v>2434.272627687848</v>
+        <v>2684.556713763292</v>
       </c>
       <c r="W17" t="n">
-        <v>2189.303098509209</v>
+        <v>2492.489877207341</v>
       </c>
       <c r="X17" t="n">
-        <v>1923.636466339604</v>
+        <v>2226.823245037735</v>
       </c>
       <c r="Y17" t="n">
-        <v>1641.296260455267</v>
+        <v>1944.483039153399</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>962.6110173097687</v>
+        <v>962.6110173097685</v>
       </c>
       <c r="C18" t="n">
-        <v>788.1579880286417</v>
+        <v>788.1579880286415</v>
       </c>
       <c r="D18" t="n">
-        <v>639.2235783673905</v>
+        <v>639.2235783673902</v>
       </c>
       <c r="E18" t="n">
-        <v>479.9861233619349</v>
+        <v>479.9861233619348</v>
       </c>
       <c r="F18" t="n">
-        <v>333.4515653888199</v>
+        <v>333.4515653888198</v>
       </c>
       <c r="G18" t="n">
         <v>196.1752353271197</v>
       </c>
       <c r="H18" t="n">
-        <v>96.85346277512461</v>
+        <v>96.85346277512457</v>
       </c>
       <c r="I18" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J18" t="n">
-        <v>65.7459009438145</v>
+        <v>65.74590094381449</v>
       </c>
       <c r="K18" t="n">
-        <v>159.4780843222629</v>
+        <v>421.2986689647157</v>
       </c>
       <c r="L18" t="n">
-        <v>331.8351132996212</v>
+        <v>960.7876397924988</v>
       </c>
       <c r="M18" t="n">
-        <v>1013.372517845109</v>
+        <v>1181.277031225487</v>
       </c>
       <c r="N18" t="n">
-        <v>1714.19170557426</v>
+        <v>1422.010765678792</v>
       </c>
       <c r="O18" t="n">
-        <v>2226.595550826852</v>
+        <v>2009.939002436311</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.178584862765</v>
+        <v>2464.800177425762</v>
       </c>
       <c r="Q18" t="n">
         <v>2617.543465036115</v>
@@ -5625,7 +5625,7 @@
         <v>2263.955546039952</v>
       </c>
       <c r="U18" t="n">
-        <v>2035.827618260268</v>
+        <v>2035.827618260267</v>
       </c>
       <c r="V18" t="n">
         <v>1800.675510028525</v>
@@ -5634,10 +5634,10 @@
         <v>1546.438153300323</v>
       </c>
       <c r="X18" t="n">
-        <v>1338.586653094791</v>
+        <v>1338.58665309479</v>
       </c>
       <c r="Y18" t="n">
-        <v>1130.826354329837</v>
+        <v>1130.826354329836</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>357.7365447905001</v>
+        <v>357.7365447905003</v>
       </c>
       <c r="C19" t="n">
-        <v>296.5994879540681</v>
+        <v>296.5994879540683</v>
       </c>
       <c r="D19" t="n">
-        <v>254.2819746332073</v>
+        <v>254.2819746332074</v>
       </c>
       <c r="E19" t="n">
         <v>214.1680071422891</v>
@@ -5662,37 +5662,37 @@
         <v>175.0771857358536</v>
       </c>
       <c r="G19" t="n">
-        <v>114.4078539360314</v>
+        <v>114.4078539360315</v>
       </c>
       <c r="H19" t="n">
-        <v>69.18272417114932</v>
+        <v>69.1827241711493</v>
       </c>
       <c r="I19" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J19" t="n">
-        <v>154.3561615035271</v>
+        <v>154.356161503527</v>
       </c>
       <c r="K19" t="n">
-        <v>291.8882190890548</v>
+        <v>291.888219089055</v>
       </c>
       <c r="L19" t="n">
-        <v>496.8861731943213</v>
+        <v>496.8861731943215</v>
       </c>
       <c r="M19" t="n">
-        <v>829.0708195409952</v>
+        <v>723.4168960587409</v>
       </c>
       <c r="N19" t="n">
-        <v>1055.649764558613</v>
+        <v>949.9958410763589</v>
       </c>
       <c r="O19" t="n">
-        <v>1248.91579763284</v>
+        <v>1143.261874150586</v>
       </c>
       <c r="P19" t="n">
-        <v>1390.767594437887</v>
+        <v>1285.113670955633</v>
       </c>
       <c r="Q19" t="n">
-        <v>1405.543345632257</v>
+        <v>1405.543345632258</v>
       </c>
       <c r="R19" t="n">
         <v>1389.086898283851</v>
@@ -5701,22 +5701,22 @@
         <v>1291.857449593492</v>
       </c>
       <c r="T19" t="n">
-        <v>1174.618669390606</v>
+        <v>1174.618669390607</v>
       </c>
       <c r="U19" t="n">
-        <v>993.2731674477603</v>
+        <v>993.2731674477607</v>
       </c>
       <c r="V19" t="n">
-        <v>846.3878053333483</v>
+        <v>846.3878053333486</v>
       </c>
       <c r="W19" t="n">
-        <v>664.7697613878626</v>
+        <v>664.7697613878629</v>
       </c>
       <c r="X19" t="n">
-        <v>544.5793365813201</v>
+        <v>544.5793365813204</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.5858835292649</v>
+        <v>431.5858835292652</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1285.033707229286</v>
+        <v>1613.94770015136</v>
       </c>
       <c r="C20" t="n">
-        <v>1023.87031638035</v>
+        <v>1404.518934331816</v>
       </c>
       <c r="D20" t="n">
-        <v>773.4037438650739</v>
+        <v>1154.05236181654</v>
       </c>
       <c r="E20" t="n">
-        <v>495.4146173583046</v>
+        <v>876.0632353097707</v>
       </c>
       <c r="F20" t="n">
-        <v>495.4146173583046</v>
+        <v>572.876456611638</v>
       </c>
       <c r="G20" t="n">
-        <v>263.8963112698282</v>
+        <v>263.8963112698281</v>
       </c>
       <c r="H20" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="I20" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J20" t="n">
-        <v>103.5294620624644</v>
+        <v>270.9351110828175</v>
       </c>
       <c r="K20" t="n">
-        <v>403.0296498341439</v>
+        <v>391.9609875323026</v>
       </c>
       <c r="L20" t="n">
-        <v>1003.559315672667</v>
+        <v>992.4906533708261</v>
       </c>
       <c r="M20" t="n">
-        <v>1688.37082406989</v>
+        <v>1677.302161768049</v>
       </c>
       <c r="N20" t="n">
-        <v>2369.631301075557</v>
+        <v>2358.562638773715</v>
       </c>
       <c r="O20" t="n">
-        <v>2590.746433958514</v>
+        <v>2579.677771656673</v>
       </c>
       <c r="P20" t="n">
-        <v>2744.962083335764</v>
+        <v>2733.893421033923</v>
       </c>
       <c r="Q20" t="n">
-        <v>2812.598866953105</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="R20" t="n">
-        <v>2831.592677693541</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="S20" t="n">
-        <v>2831.592677693541</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="T20" t="n">
-        <v>2725.942446023561</v>
+        <v>2831.592677693539</v>
       </c>
       <c r="U20" t="n">
-        <v>2580.07454968661</v>
+        <v>2685.724781356588</v>
       </c>
       <c r="V20" t="n">
-        <v>2356.810788434515</v>
+        <v>2685.724781356588</v>
       </c>
       <c r="W20" t="n">
-        <v>2111.841259255875</v>
+        <v>2440.755252177949</v>
       </c>
       <c r="X20" t="n">
-        <v>1846.17462708627</v>
+        <v>2175.088620008344</v>
       </c>
       <c r="Y20" t="n">
-        <v>1563.834421201933</v>
+        <v>1892.748414124007</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>962.6110173097687</v>
+        <v>962.6110173097685</v>
       </c>
       <c r="C21" t="n">
-        <v>788.1579880286417</v>
+        <v>788.1579880286415</v>
       </c>
       <c r="D21" t="n">
-        <v>639.2235783673905</v>
+        <v>639.2235783673902</v>
       </c>
       <c r="E21" t="n">
-        <v>479.9861233619349</v>
+        <v>479.9861233619348</v>
       </c>
       <c r="F21" t="n">
-        <v>333.4515653888199</v>
+        <v>333.4515653888198</v>
       </c>
       <c r="G21" t="n">
         <v>196.1752353271197</v>
       </c>
       <c r="H21" t="n">
-        <v>96.85346277512461</v>
+        <v>96.85346277512457</v>
       </c>
       <c r="I21" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J21" t="n">
         <v>190.5760259308192</v>
@@ -5838,16 +5838,16 @@
         <v>1085.617764779503</v>
       </c>
       <c r="M21" t="n">
-        <v>1472.579134746452</v>
+        <v>1306.107156212491</v>
       </c>
       <c r="N21" t="n">
-        <v>1713.312869199758</v>
+        <v>1546.840890665797</v>
       </c>
       <c r="O21" t="n">
-        <v>1911.317409873314</v>
+        <v>1911.317409873313</v>
       </c>
       <c r="P21" t="n">
-        <v>2366.178584862765</v>
+        <v>2366.178584862764</v>
       </c>
       <c r="Q21" t="n">
         <v>2617.543465036115</v>
@@ -5862,7 +5862,7 @@
         <v>2263.955546039952</v>
       </c>
       <c r="U21" t="n">
-        <v>2035.827618260268</v>
+        <v>2035.827618260267</v>
       </c>
       <c r="V21" t="n">
         <v>1800.675510028525</v>
@@ -5871,10 +5871,10 @@
         <v>1546.438153300323</v>
       </c>
       <c r="X21" t="n">
-        <v>1338.586653094791</v>
+        <v>1338.58665309479</v>
       </c>
       <c r="Y21" t="n">
-        <v>1130.826354329837</v>
+        <v>1130.826354329836</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>357.7365447905001</v>
+        <v>357.7365447905003</v>
       </c>
       <c r="C22" t="n">
-        <v>296.5994879540681</v>
+        <v>296.5994879540683</v>
       </c>
       <c r="D22" t="n">
-        <v>254.2819746332073</v>
+        <v>254.2819746332074</v>
       </c>
       <c r="E22" t="n">
         <v>214.1680071422891</v>
@@ -5899,37 +5899,37 @@
         <v>175.0771857358536</v>
       </c>
       <c r="G22" t="n">
-        <v>114.4078539360314</v>
+        <v>114.4078539360315</v>
       </c>
       <c r="H22" t="n">
-        <v>69.18272417114932</v>
+        <v>69.1827241711493</v>
       </c>
       <c r="I22" t="n">
-        <v>56.63185355387083</v>
+        <v>56.63185355387079</v>
       </c>
       <c r="J22" t="n">
-        <v>56.63185355387083</v>
+        <v>69.42825309491035</v>
       </c>
       <c r="K22" t="n">
-        <v>186.2342956068003</v>
+        <v>186.2342956068004</v>
       </c>
       <c r="L22" t="n">
-        <v>496.8861731943213</v>
+        <v>391.2322497120668</v>
       </c>
       <c r="M22" t="n">
-        <v>829.0708195409952</v>
+        <v>617.7629725764863</v>
       </c>
       <c r="N22" t="n">
-        <v>1055.649764558613</v>
+        <v>844.3419175941043</v>
       </c>
       <c r="O22" t="n">
-        <v>1248.91579763284</v>
+        <v>1037.607950668331</v>
       </c>
       <c r="P22" t="n">
-        <v>1390.767594437887</v>
+        <v>1285.113670955633</v>
       </c>
       <c r="Q22" t="n">
-        <v>1405.543345632257</v>
+        <v>1405.543345632258</v>
       </c>
       <c r="R22" t="n">
         <v>1389.086898283851</v>
@@ -5938,22 +5938,22 @@
         <v>1291.857449593492</v>
       </c>
       <c r="T22" t="n">
-        <v>1174.618669390606</v>
+        <v>1174.618669390607</v>
       </c>
       <c r="U22" t="n">
-        <v>993.2731674477603</v>
+        <v>993.2731674477607</v>
       </c>
       <c r="V22" t="n">
-        <v>846.3878053333483</v>
+        <v>846.3878053333486</v>
       </c>
       <c r="W22" t="n">
-        <v>664.7697613878626</v>
+        <v>664.7697613878629</v>
       </c>
       <c r="X22" t="n">
-        <v>544.5793365813201</v>
+        <v>544.5793365813204</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.5858835292649</v>
+        <v>431.5858835292652</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5969,55 @@
         <v>1413.131880254505</v>
       </c>
       <c r="D23" t="n">
-        <v>1162.665307739229</v>
+        <v>1162.66530773923</v>
       </c>
       <c r="E23" t="n">
-        <v>884.67618123246</v>
+        <v>884.6761812324605</v>
       </c>
       <c r="F23" t="n">
-        <v>581.4894025343274</v>
+        <v>581.4894025343278</v>
       </c>
       <c r="G23" t="n">
-        <v>272.509257192517</v>
+        <v>272.5092571925166</v>
       </c>
       <c r="H23" t="n">
-        <v>65.24479947655925</v>
+        <v>65.24479947655928</v>
       </c>
       <c r="I23" t="n">
-        <v>65.24479947655925</v>
+        <v>65.24479947655928</v>
       </c>
       <c r="J23" t="n">
-        <v>279.5480570055058</v>
+        <v>279.5480570055059</v>
       </c>
       <c r="K23" t="n">
-        <v>400.5739334549909</v>
+        <v>721.4778919004441</v>
       </c>
       <c r="L23" t="n">
-        <v>1001.103599293514</v>
+        <v>1322.007557738968</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.915107690737</v>
+        <v>1561.800667978286</v>
       </c>
       <c r="N23" t="n">
-        <v>2367.175584696403</v>
+        <v>1913.507666657224</v>
       </c>
       <c r="O23" t="n">
-        <v>2588.290717579361</v>
+        <v>2511.6149789903</v>
       </c>
       <c r="P23" t="n">
-        <v>2984.411349457317</v>
+        <v>2984.411349457318</v>
       </c>
       <c r="Q23" t="n">
-        <v>3262.239973827963</v>
+        <v>3262.239973827964</v>
       </c>
       <c r="R23" t="n">
-        <v>3262.239973827963</v>
+        <v>3262.239973827964</v>
       </c>
       <c r="S23" t="n">
-        <v>3220.854241567696</v>
+        <v>3220.854241567697</v>
       </c>
       <c r="T23" t="n">
-        <v>3115.204009897716</v>
+        <v>3115.204009897717</v>
       </c>
       <c r="U23" t="n">
         <v>2969.336113560766</v>
@@ -6029,7 +6029,7 @@
         <v>2501.102823130031</v>
       </c>
       <c r="X23" t="n">
-        <v>2235.436190960425</v>
+        <v>2235.436190960426</v>
       </c>
       <c r="Y23" t="n">
         <v>1953.095985076089</v>
@@ -6054,16 +6054,16 @@
         <v>488.5990692846233</v>
       </c>
       <c r="F24" t="n">
-        <v>342.0645113115082</v>
+        <v>342.0645113115083</v>
       </c>
       <c r="G24" t="n">
         <v>204.7881812498082</v>
       </c>
       <c r="H24" t="n">
-        <v>105.466408697813</v>
+        <v>105.4664086978131</v>
       </c>
       <c r="I24" t="n">
-        <v>65.24479947655925</v>
+        <v>65.24479947655928</v>
       </c>
       <c r="J24" t="n">
         <v>199.1889718535077</v>
@@ -6075,13 +6075,13 @@
         <v>1094.230710702192</v>
       </c>
       <c r="M24" t="n">
-        <v>1481.19208066914</v>
+        <v>1321.92127102256</v>
       </c>
       <c r="N24" t="n">
-        <v>1721.925815122446</v>
+        <v>2037.203956075984</v>
       </c>
       <c r="O24" t="n">
-        <v>1919.930355796002</v>
+        <v>2235.20849674954</v>
       </c>
       <c r="P24" t="n">
         <v>2374.791530785453</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>366.3494907131886</v>
+        <v>366.3494907131889</v>
       </c>
       <c r="C25" t="n">
-        <v>305.2124338767566</v>
+        <v>305.2124338767568</v>
       </c>
       <c r="D25" t="n">
-        <v>262.8949205558957</v>
+        <v>262.8949205558959</v>
       </c>
       <c r="E25" t="n">
-        <v>222.7809530649775</v>
+        <v>222.7809530649776</v>
       </c>
       <c r="F25" t="n">
-        <v>183.690131658542</v>
+        <v>183.6901316585421</v>
       </c>
       <c r="G25" t="n">
-        <v>123.0207998587199</v>
+        <v>123.02079985872</v>
       </c>
       <c r="H25" t="n">
-        <v>77.79567009383774</v>
+        <v>77.7956700938378</v>
       </c>
       <c r="I25" t="n">
-        <v>65.24479947655925</v>
+        <v>65.24479947655928</v>
       </c>
       <c r="J25" t="n">
-        <v>78.04119901759877</v>
+        <v>65.24479947655928</v>
       </c>
       <c r="K25" t="n">
-        <v>194.8472415294888</v>
+        <v>287.7047654707038</v>
       </c>
       <c r="L25" t="n">
-        <v>399.8451956347552</v>
+        <v>492.7027195759703</v>
       </c>
       <c r="M25" t="n">
-        <v>732.0298419814292</v>
+        <v>719.2334424403897</v>
       </c>
       <c r="N25" t="n">
-        <v>958.6087869990471</v>
+        <v>945.8123874580077</v>
       </c>
       <c r="O25" t="n">
-        <v>1151.874820073274</v>
+        <v>1139.078420532235</v>
       </c>
       <c r="P25" t="n">
         <v>1293.726616878321</v>
@@ -6169,10 +6169,10 @@
         <v>1414.156291554946</v>
       </c>
       <c r="R25" t="n">
-        <v>1397.699844206539</v>
+        <v>1397.69984420654</v>
       </c>
       <c r="S25" t="n">
-        <v>1300.47039551618</v>
+        <v>1300.470395516181</v>
       </c>
       <c r="T25" t="n">
         <v>1183.231615313295</v>
@@ -6181,16 +6181,16 @@
         <v>1001.886113370449</v>
       </c>
       <c r="V25" t="n">
-        <v>855.0007512560368</v>
+        <v>855.0007512560372</v>
       </c>
       <c r="W25" t="n">
-        <v>673.382707310551</v>
+        <v>673.3827073105515</v>
       </c>
       <c r="X25" t="n">
-        <v>553.1922825040086</v>
+        <v>553.192282504009</v>
       </c>
       <c r="Y25" t="n">
-        <v>440.1988294519534</v>
+        <v>440.1988294519537</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2060.82114324844</v>
+        <v>2060.821143248441</v>
       </c>
       <c r="C26" t="n">
         <v>1746.753373251166</v>
@@ -6218,55 +6218,55 @@
         <v>394.5132335958265</v>
       </c>
       <c r="H26" t="n">
-        <v>134.3443967315312</v>
+        <v>134.3443967315313</v>
       </c>
       <c r="I26" t="n">
-        <v>81.44001758319332</v>
+        <v>81.44001758319335</v>
       </c>
       <c r="J26" t="n">
-        <v>295.7432751121396</v>
+        <v>295.7432751121401</v>
       </c>
       <c r="K26" t="n">
-        <v>737.673110007078</v>
+        <v>737.6731100070783</v>
       </c>
       <c r="L26" t="n">
         <v>1338.202775845602</v>
       </c>
       <c r="M26" t="n">
-        <v>2023.014284242824</v>
+        <v>2023.014284242825</v>
       </c>
       <c r="N26" t="n">
-        <v>2704.27476124849</v>
+        <v>2704.274761248491</v>
       </c>
       <c r="O26" t="n">
-        <v>3302.382073581566</v>
+        <v>3302.382073581567</v>
       </c>
       <c r="P26" t="n">
-        <v>3775.178444048584</v>
+        <v>3775.178444048585</v>
       </c>
       <c r="Q26" t="n">
-        <v>4053.00706841923</v>
+        <v>4053.007068419231</v>
       </c>
       <c r="R26" t="n">
-        <v>4072.000879159666</v>
+        <v>4072.000879159667</v>
       </c>
       <c r="S26" t="n">
-        <v>3977.71076775106</v>
+        <v>3977.710767751062</v>
       </c>
       <c r="T26" t="n">
-        <v>3819.156156932743</v>
+        <v>3819.156156932744</v>
       </c>
       <c r="U26" t="n">
-        <v>3620.383881447454</v>
+        <v>3620.383881447455</v>
       </c>
       <c r="V26" t="n">
-        <v>3344.21574104702</v>
+        <v>3344.215741047021</v>
       </c>
       <c r="W26" t="n">
-        <v>3046.341832720043</v>
+        <v>3046.341832720044</v>
       </c>
       <c r="X26" t="n">
-        <v>2727.7708214021</v>
+        <v>2727.770821402101</v>
       </c>
       <c r="Y26" t="n">
         <v>2392.526236369426</v>
@@ -6300,28 +6300,28 @@
         <v>121.6616268044471</v>
       </c>
       <c r="I27" t="n">
-        <v>81.44001758319332</v>
+        <v>81.44001758319335</v>
       </c>
       <c r="J27" t="n">
-        <v>215.3841899601417</v>
+        <v>90.55406497313706</v>
       </c>
       <c r="K27" t="n">
-        <v>570.936957981043</v>
+        <v>184.2862483515855</v>
       </c>
       <c r="L27" t="n">
-        <v>1110.425928808826</v>
+        <v>723.7752191793686</v>
       </c>
       <c r="M27" t="n">
-        <v>1497.387298775775</v>
+        <v>1405.312623724857</v>
       </c>
       <c r="N27" t="n">
-        <v>1738.12103322908</v>
+        <v>1646.046358178163</v>
       </c>
       <c r="O27" t="n">
-        <v>1936.125573902636</v>
+        <v>2233.974594935681</v>
       </c>
       <c r="P27" t="n">
-        <v>2390.986748892087</v>
+        <v>2598.963263750578</v>
       </c>
       <c r="Q27" t="n">
         <v>2642.351629065438</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.2848206138248</v>
+        <v>195.4814535679633</v>
       </c>
       <c r="C28" t="n">
-        <v>210.2433846290543</v>
+        <v>81.44001758319335</v>
       </c>
       <c r="D28" t="n">
-        <v>210.2433846290543</v>
+        <v>81.44001758319335</v>
       </c>
       <c r="E28" t="n">
-        <v>210.2433846290543</v>
+        <v>81.44001758319335</v>
       </c>
       <c r="F28" t="n">
-        <v>195.0137285313534</v>
+        <v>81.44001758319335</v>
       </c>
       <c r="G28" t="n">
-        <v>81.44001758319332</v>
+        <v>81.44001758319335</v>
       </c>
       <c r="H28" t="n">
-        <v>81.44001758319332</v>
+        <v>81.44001758319335</v>
       </c>
       <c r="I28" t="n">
-        <v>81.44001758319332</v>
+        <v>81.44001758319335</v>
       </c>
       <c r="J28" t="n">
-        <v>127.3127435295636</v>
+        <v>127.3127435295635</v>
       </c>
       <c r="K28" t="n">
-        <v>297.9211275204221</v>
+        <v>297.921127520422</v>
       </c>
       <c r="L28" t="n">
-        <v>556.7214231046571</v>
+        <v>556.721423104657</v>
       </c>
       <c r="M28" t="n">
-        <v>837.0544874480452</v>
+        <v>837.0544874480449</v>
       </c>
       <c r="N28" t="n">
-        <v>1117.435773944632</v>
+        <v>1117.435773944631</v>
       </c>
       <c r="O28" t="n">
         <v>1364.504148497827</v>
       </c>
       <c r="P28" t="n">
-        <v>1560.158286781843</v>
+        <v>1560.158286781842</v>
       </c>
       <c r="Q28" t="n">
-        <v>1628.736379455182</v>
+        <v>1628.736379455181</v>
       </c>
       <c r="R28" t="n">
-        <v>1628.736379455182</v>
+        <v>1628.736379455181</v>
       </c>
       <c r="S28" t="n">
-        <v>1628.736379455182</v>
+        <v>1478.602551616484</v>
       </c>
       <c r="T28" t="n">
-        <v>1458.593220103958</v>
+        <v>1308.45939226526</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.343339012774</v>
+        <v>1074.209511174076</v>
       </c>
       <c r="V28" t="n">
-        <v>1024.553597750024</v>
+        <v>874.4197699113264</v>
       </c>
       <c r="W28" t="n">
-        <v>790.0311746562008</v>
+        <v>639.8973468175027</v>
       </c>
       <c r="X28" t="n">
-        <v>616.9363707013206</v>
+        <v>466.8025428626223</v>
       </c>
       <c r="Y28" t="n">
-        <v>451.0385385009275</v>
+        <v>322.2351714550662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2060.821143248441</v>
+        <v>2060.82114324844</v>
       </c>
       <c r="C29" t="n">
-        <v>1746.753373251167</v>
+        <v>1746.753373251165</v>
       </c>
       <c r="D29" t="n">
-        <v>1443.382421587553</v>
+        <v>1443.382421587552</v>
       </c>
       <c r="E29" t="n">
         <v>1112.488915932445</v>
       </c>
       <c r="F29" t="n">
-        <v>756.3977580859748</v>
+        <v>756.3977580859744</v>
       </c>
       <c r="G29" t="n">
-        <v>394.5132335958267</v>
+        <v>394.5132335958265</v>
       </c>
       <c r="H29" t="n">
-        <v>134.3443967315314</v>
+        <v>134.3443967315313</v>
       </c>
       <c r="I29" t="n">
-        <v>81.44001758319335</v>
+        <v>81.44001758319334</v>
       </c>
       <c r="J29" t="n">
-        <v>295.7432751121399</v>
+        <v>295.74327511214</v>
       </c>
       <c r="K29" t="n">
-        <v>737.6731100070781</v>
+        <v>737.6731100070782</v>
       </c>
       <c r="L29" t="n">
         <v>1338.202775845602</v>
@@ -6473,13 +6473,13 @@
         <v>2023.014284242824</v>
       </c>
       <c r="N29" t="n">
-        <v>2704.274761248492</v>
+        <v>2704.274761248491</v>
       </c>
       <c r="O29" t="n">
-        <v>3302.382073581568</v>
+        <v>3302.382073581567</v>
       </c>
       <c r="P29" t="n">
-        <v>3775.178444048585</v>
+        <v>3775.178444048584</v>
       </c>
       <c r="Q29" t="n">
         <v>4053.007068419231</v>
@@ -6488,25 +6488,25 @@
         <v>4072.000879159667</v>
       </c>
       <c r="S29" t="n">
-        <v>3977.710767751062</v>
+        <v>3977.710767751061</v>
       </c>
       <c r="T29" t="n">
-        <v>3819.156156932744</v>
+        <v>3819.156156932743</v>
       </c>
       <c r="U29" t="n">
-        <v>3620.383881447456</v>
+        <v>3620.383881447454</v>
       </c>
       <c r="V29" t="n">
-        <v>3344.215741047022</v>
+        <v>3344.21574104702</v>
       </c>
       <c r="W29" t="n">
-        <v>3046.341832720044</v>
+        <v>3046.341832720042</v>
       </c>
       <c r="X29" t="n">
-        <v>2727.770821402101</v>
+        <v>2727.7708214021</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.526236369426</v>
+        <v>2392.526236369425</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>121.6616268044471</v>
       </c>
       <c r="I30" t="n">
-        <v>81.44001758319335</v>
+        <v>81.44001758319334</v>
       </c>
       <c r="J30" t="n">
-        <v>215.3841899601418</v>
+        <v>90.55406497313705</v>
       </c>
       <c r="K30" t="n">
-        <v>570.936957981043</v>
+        <v>184.2862483515855</v>
       </c>
       <c r="L30" t="n">
-        <v>1110.425928808826</v>
+        <v>723.7752191793686</v>
       </c>
       <c r="M30" t="n">
-        <v>1330.915320241814</v>
+        <v>1315.440117550303</v>
       </c>
       <c r="N30" t="n">
-        <v>1738.12103322908</v>
+        <v>1556.173852003609</v>
       </c>
       <c r="O30" t="n">
-        <v>1936.125573902636</v>
+        <v>2144.102088761127</v>
       </c>
       <c r="P30" t="n">
-        <v>2390.986748892087</v>
+        <v>2598.963263750578</v>
       </c>
       <c r="Q30" t="n">
         <v>2642.351629065438</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.4279799650458</v>
+        <v>324.2848206138238</v>
       </c>
       <c r="C31" t="n">
-        <v>459.8049661596422</v>
+        <v>324.2848206138238</v>
       </c>
       <c r="D31" t="n">
-        <v>364.5830736904433</v>
+        <v>324.2848206138238</v>
       </c>
       <c r="E31" t="n">
-        <v>271.564727051187</v>
+        <v>324.2848206138238</v>
       </c>
       <c r="F31" t="n">
-        <v>179.5695264964135</v>
+        <v>324.2848206138238</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5695264964135</v>
+        <v>210.7111096656631</v>
       </c>
       <c r="H31" t="n">
-        <v>81.44001758319335</v>
+        <v>146.8952673488098</v>
       </c>
       <c r="I31" t="n">
-        <v>81.44001758319335</v>
+        <v>81.44001758319334</v>
       </c>
       <c r="J31" t="n">
         <v>127.3127435295635</v>
       </c>
       <c r="K31" t="n">
-        <v>297.9211275204218</v>
+        <v>297.9211275204221</v>
       </c>
       <c r="L31" t="n">
-        <v>556.7214231046567</v>
+        <v>556.7214231046571</v>
       </c>
       <c r="M31" t="n">
-        <v>837.0544874480445</v>
+        <v>837.0544874480452</v>
       </c>
       <c r="N31" t="n">
-        <v>1117.435773944631</v>
+        <v>1117.435773944632</v>
       </c>
       <c r="O31" t="n">
-        <v>1364.504148497826</v>
+        <v>1364.504148497827</v>
       </c>
       <c r="P31" t="n">
         <v>1560.158286781842</v>
       </c>
       <c r="Q31" t="n">
-        <v>1628.73637945518</v>
+        <v>1628.736379455181</v>
       </c>
       <c r="R31" t="n">
-        <v>1628.73637945518</v>
+        <v>1628.736379455181</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.73637945518</v>
+        <v>1628.736379455181</v>
       </c>
       <c r="T31" t="n">
-        <v>1628.73637945518</v>
+        <v>1458.593220103958</v>
       </c>
       <c r="U31" t="n">
-        <v>1394.486498363996</v>
+        <v>1224.343339012774</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.696757101246</v>
+        <v>1024.553597750024</v>
       </c>
       <c r="W31" t="n">
-        <v>960.1743340074224</v>
+        <v>790.0311746562003</v>
       </c>
       <c r="X31" t="n">
-        <v>787.0795300525419</v>
+        <v>616.9363707013198</v>
       </c>
       <c r="Y31" t="n">
-        <v>621.1816978521487</v>
+        <v>451.0385385009266</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2031.603116419543</v>
       </c>
       <c r="C32" t="n">
-        <v>1721.534461826223</v>
+        <v>1721.534461826224</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.162625566565</v>
+        <v>1422.162625566566</v>
       </c>
       <c r="E32" t="n">
-        <v>1095.268235315413</v>
+        <v>1095.268235315414</v>
       </c>
       <c r="F32" t="n">
-        <v>743.1761928728979</v>
+        <v>743.1761928728984</v>
       </c>
       <c r="G32" t="n">
-        <v>385.2907837867051</v>
+        <v>385.2907837867057</v>
       </c>
       <c r="H32" t="n">
-        <v>129.1210623263653</v>
+        <v>129.1210623263652</v>
       </c>
       <c r="I32" t="n">
         <v>80.21579858198254</v>
       </c>
       <c r="J32" t="n">
-        <v>234.5323250516008</v>
+        <v>294.5190561109292</v>
       </c>
       <c r="K32" t="n">
-        <v>676.4621599465389</v>
+        <v>736.4488910058674</v>
       </c>
       <c r="L32" t="n">
-        <v>1276.991825785062</v>
+        <v>1336.978556844391</v>
       </c>
       <c r="M32" t="n">
-        <v>1961.803334182285</v>
+        <v>2021.790065241614</v>
       </c>
       <c r="N32" t="n">
-        <v>2643.063811187952</v>
+        <v>2703.05054224728</v>
       </c>
       <c r="O32" t="n">
-        <v>3241.171123521027</v>
+        <v>3301.157854580355</v>
       </c>
       <c r="P32" t="n">
-        <v>3713.967493988045</v>
+        <v>3713.967493988044</v>
       </c>
       <c r="Q32" t="n">
         <v>3991.796118358691</v>
@@ -6728,10 +6728,10 @@
         <v>3920.498933094477</v>
       </c>
       <c r="T32" t="n">
-        <v>3765.943437680115</v>
+        <v>3765.943437680114</v>
       </c>
       <c r="U32" t="n">
-        <v>3571.170277598781</v>
+        <v>3571.17027759878</v>
       </c>
       <c r="V32" t="n">
         <v>3299.001252602302</v>
@@ -6768,7 +6768,7 @@
         <v>357.0355104169315</v>
       </c>
       <c r="G33" t="n">
-        <v>219.7591803552315</v>
+        <v>219.7591803552314</v>
       </c>
       <c r="H33" t="n">
         <v>120.4374078032363</v>
@@ -6777,25 +6777,25 @@
         <v>80.21579858198254</v>
       </c>
       <c r="J33" t="n">
-        <v>214.159970958931</v>
+        <v>89.32984597192625</v>
       </c>
       <c r="K33" t="n">
-        <v>569.7127389798322</v>
+        <v>183.0620293503747</v>
       </c>
       <c r="L33" t="n">
-        <v>1109.201709807615</v>
+        <v>722.5510001781578</v>
       </c>
       <c r="M33" t="n">
-        <v>1496.163079774564</v>
+        <v>1404.088404723646</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.89681422787</v>
+        <v>1644.822139176952</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.901354901426</v>
+        <v>2232.75037593447</v>
       </c>
       <c r="P33" t="n">
-        <v>2389.762529890877</v>
+        <v>2597.739044749367</v>
       </c>
       <c r="Q33" t="n">
         <v>2641.127410064227</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>701.9446083290895</v>
+        <v>359.0305635480383</v>
       </c>
       <c r="C34" t="n">
-        <v>591.9022877482747</v>
+        <v>359.0305635480383</v>
       </c>
       <c r="D34" t="n">
-        <v>500.679510683031</v>
+        <v>359.0305635480383</v>
       </c>
       <c r="E34" t="n">
-        <v>411.6602794477301</v>
+        <v>359.0305635480383</v>
       </c>
       <c r="F34" t="n">
-        <v>323.6641942969115</v>
+        <v>271.0344783972201</v>
       </c>
       <c r="G34" t="n">
-        <v>214.0895987527067</v>
+        <v>161.4598828530155</v>
       </c>
       <c r="H34" t="n">
-        <v>119.9592052434414</v>
+        <v>80.21579858198254</v>
       </c>
       <c r="I34" t="n">
         <v>80.21579858198254</v>
       </c>
       <c r="J34" t="n">
-        <v>130.0080575357692</v>
+        <v>130.0080575357693</v>
       </c>
       <c r="K34" t="n">
-        <v>304.5359745340443</v>
+        <v>304.5359745340444</v>
       </c>
       <c r="L34" t="n">
-        <v>567.2558031256957</v>
+        <v>567.2558031256959</v>
       </c>
       <c r="M34" t="n">
-        <v>851.5084004765004</v>
+        <v>851.5084004765005</v>
       </c>
       <c r="N34" t="n">
         <v>1135.809219980503</v>
       </c>
       <c r="O34" t="n">
-        <v>1386.797127541115</v>
+        <v>1386.797127541116</v>
       </c>
       <c r="P34" t="n">
         <v>1586.370798832547</v>
@@ -6880,28 +6880,28 @@
         <v>1658.868424513303</v>
       </c>
       <c r="R34" t="n">
-        <v>1593.506713420514</v>
+        <v>1658.868424513303</v>
       </c>
       <c r="S34" t="n">
-        <v>1447.372000985772</v>
+        <v>1512.733712078561</v>
       </c>
       <c r="T34" t="n">
-        <v>1447.372000985772</v>
+        <v>1346.589668131293</v>
       </c>
       <c r="U34" t="n">
-        <v>1217.121235298544</v>
+        <v>1116.338902444064</v>
       </c>
       <c r="V34" t="n">
-        <v>1217.121235298544</v>
+        <v>920.5482765852697</v>
       </c>
       <c r="W34" t="n">
-        <v>986.597927608675</v>
+        <v>690.0249688954013</v>
       </c>
       <c r="X34" t="n">
-        <v>986.597927608675</v>
+        <v>520.9292803444762</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.6992108122371</v>
+        <v>359.0305635480383</v>
       </c>
     </row>
     <row r="35">
@@ -6920,52 +6920,52 @@
         <v>1299.141481248996</v>
       </c>
       <c r="E35" t="n">
-        <v>995.4318451192316</v>
+        <v>995.4318451192321</v>
       </c>
       <c r="F35" t="n">
-        <v>666.5245567981044</v>
+        <v>666.5245567981049</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8239018332997</v>
+        <v>331.8239018333002</v>
       </c>
       <c r="H35" t="n">
-        <v>98.83893449434812</v>
+        <v>98.83893449434811</v>
       </c>
       <c r="I35" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J35" t="n">
-        <v>120.0160333799471</v>
+        <v>287.4216824003002</v>
       </c>
       <c r="K35" t="n">
-        <v>340.5872851555235</v>
+        <v>729.3515172952384</v>
       </c>
       <c r="L35" t="n">
-        <v>941.1169509940471</v>
+        <v>1329.881183133762</v>
       </c>
       <c r="M35" t="n">
-        <v>1625.92845939127</v>
+        <v>2014.692691530985</v>
       </c>
       <c r="N35" t="n">
-        <v>2307.188936396936</v>
+        <v>2695.953168536651</v>
       </c>
       <c r="O35" t="n">
-        <v>2905.296248730012</v>
+        <v>3294.060480869727</v>
       </c>
       <c r="P35" t="n">
-        <v>3378.09261919703</v>
+        <v>3569.2906492099</v>
       </c>
       <c r="Q35" t="n">
-        <v>3655.921243567676</v>
+        <v>3636.927432827241</v>
       </c>
       <c r="R35" t="n">
-        <v>3655.921243567676</v>
+        <v>3655.921243567677</v>
       </c>
       <c r="S35" t="n">
         <v>3588.815001684414</v>
       </c>
       <c r="T35" t="n">
-        <v>3457.444260391439</v>
+        <v>3457.44426039144</v>
       </c>
       <c r="U35" t="n">
         <v>3285.855854431494</v>
@@ -7011,28 +7011,28 @@
         <v>113.3400340926073</v>
       </c>
       <c r="I36" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J36" t="n">
-        <v>82.2324722612972</v>
+        <v>82.23247226129725</v>
       </c>
       <c r="K36" t="n">
-        <v>437.7852402821984</v>
+        <v>175.9646556397457</v>
       </c>
       <c r="L36" t="n">
-        <v>977.2742111099814</v>
+        <v>348.3216846171041</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.763602542969</v>
+        <v>1029.859089162592</v>
       </c>
       <c r="N36" t="n">
-        <v>1438.497336996275</v>
+        <v>1547.852259291769</v>
       </c>
       <c r="O36" t="n">
-        <v>2026.425573753793</v>
+        <v>2135.780496049287</v>
       </c>
       <c r="P36" t="n">
-        <v>2481.286748743244</v>
+        <v>2590.641671038738</v>
       </c>
       <c r="Q36" t="n">
         <v>2634.030036353598</v>
@@ -7081,28 +7081,28 @@
         <v>333.53661695175</v>
       </c>
       <c r="F37" t="n">
-        <v>268.7252859223199</v>
+        <v>268.72528592232</v>
       </c>
       <c r="G37" t="n">
-        <v>182.3354444995032</v>
+        <v>182.3354444995033</v>
       </c>
       <c r="H37" t="n">
-        <v>111.3898051116265</v>
+        <v>111.3898051116266</v>
       </c>
       <c r="I37" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J37" t="n">
-        <v>145.6340613395125</v>
+        <v>145.6340613395123</v>
       </c>
       <c r="K37" t="n">
         <v>342.88535585216</v>
       </c>
       <c r="L37" t="n">
-        <v>628.328561958184</v>
+        <v>628.3285619581841</v>
       </c>
       <c r="M37" t="n">
-        <v>935.3045368233609</v>
+        <v>935.3045368233608</v>
       </c>
       <c r="N37" t="n">
         <v>1242.328733841736</v>
@@ -7114,13 +7114,13 @@
         <v>1738.337067722525</v>
       </c>
       <c r="Q37" t="n">
-        <v>1833.558070917654</v>
+        <v>1833.558070917653</v>
       </c>
       <c r="R37" t="n">
-        <v>1791.381113946253</v>
+        <v>1791.381113946252</v>
       </c>
       <c r="S37" t="n">
-        <v>1668.431155632899</v>
+        <v>1668.431155632898</v>
       </c>
       <c r="T37" t="n">
         <v>1525.471865807019</v>
@@ -7132,10 +7132,10 @@
         <v>1145.799982503771</v>
       </c>
       <c r="W37" t="n">
-        <v>938.4614289352908</v>
+        <v>938.4614289352913</v>
       </c>
       <c r="X37" t="n">
-        <v>792.5504945057537</v>
+        <v>792.5504945057543</v>
       </c>
       <c r="Y37" t="n">
         <v>653.8365318307044</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1862.212463859197</v>
+        <v>1862.212463859198</v>
       </c>
       <c r="C38" t="n">
-        <v>1575.328563387265</v>
+        <v>1575.328563387267</v>
       </c>
       <c r="D38" t="n">
-        <v>1299.141481248995</v>
+        <v>1299.141481248996</v>
       </c>
       <c r="E38" t="n">
-        <v>995.4318451192312</v>
+        <v>995.4318451192321</v>
       </c>
       <c r="F38" t="n">
-        <v>666.524556798104</v>
+        <v>666.5245567981049</v>
       </c>
       <c r="G38" t="n">
-        <v>331.8239018332997</v>
+        <v>331.8239018333002</v>
       </c>
       <c r="H38" t="n">
-        <v>98.83893449434811</v>
+        <v>98.83893449434814</v>
       </c>
       <c r="I38" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J38" t="n">
-        <v>120.0160333799471</v>
+        <v>287.4216824003002</v>
       </c>
       <c r="K38" t="n">
-        <v>561.9458682748852</v>
+        <v>717.5794646056419</v>
       </c>
       <c r="L38" t="n">
-        <v>1162.475534113409</v>
+        <v>1318.109130444165</v>
       </c>
       <c r="M38" t="n">
-        <v>1847.287042510631</v>
+        <v>2002.920638841388</v>
       </c>
       <c r="N38" t="n">
-        <v>2528.547519516298</v>
+        <v>2684.181115847055</v>
       </c>
       <c r="O38" t="n">
-        <v>3126.654831849373</v>
+        <v>2905.296248730012</v>
       </c>
       <c r="P38" t="n">
-        <v>3588.284459950336</v>
+        <v>3378.09261919703</v>
       </c>
       <c r="Q38" t="n">
-        <v>3655.921243567676</v>
+        <v>3655.921243567677</v>
       </c>
       <c r="R38" t="n">
-        <v>3655.921243567676</v>
+        <v>3655.921243567677</v>
       </c>
       <c r="S38" t="n">
-        <v>3588.815001684413</v>
+        <v>3588.815001684414</v>
       </c>
       <c r="T38" t="n">
-        <v>3457.444260391439</v>
+        <v>3457.44426039144</v>
       </c>
       <c r="U38" t="n">
-        <v>3285.855854431494</v>
+        <v>3285.855854431495</v>
       </c>
       <c r="V38" t="n">
-        <v>3036.871583556403</v>
+        <v>3036.871583556404</v>
       </c>
       <c r="W38" t="n">
-        <v>2766.18154475477</v>
+        <v>2766.181544754771</v>
       </c>
       <c r="X38" t="n">
-        <v>2474.79440296217</v>
+        <v>2474.794402962171</v>
       </c>
       <c r="Y38" t="n">
-        <v>2166.733687454838</v>
+        <v>2166.73368745484</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>113.3400340926073</v>
       </c>
       <c r="I39" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J39" t="n">
-        <v>207.0625972483019</v>
+        <v>82.23247226129725</v>
       </c>
       <c r="K39" t="n">
-        <v>562.6153652692032</v>
+        <v>175.9646556397457</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.104336096986</v>
+        <v>715.4536264675287</v>
       </c>
       <c r="M39" t="n">
-        <v>1322.593727529974</v>
+        <v>1396.991031013017</v>
       </c>
       <c r="N39" t="n">
-        <v>1563.32746198328</v>
+        <v>1863.130400245306</v>
       </c>
       <c r="O39" t="n">
-        <v>1927.803981190797</v>
+        <v>2451.058637002825</v>
       </c>
       <c r="P39" t="n">
-        <v>2382.665156180247</v>
+        <v>2590.641671038738</v>
       </c>
       <c r="Q39" t="n">
         <v>2634.030036353598</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.266683468945</v>
+        <v>554.2666834689452</v>
       </c>
       <c r="C40" t="n">
-        <v>467.4091170095183</v>
+        <v>467.4091170095186</v>
       </c>
       <c r="D40" t="n">
-        <v>399.3710940656629</v>
+        <v>399.3710940656631</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5366169517501</v>
+        <v>333.5366169517503</v>
       </c>
       <c r="F40" t="n">
-        <v>268.72528592232</v>
+        <v>268.7252859223202</v>
       </c>
       <c r="G40" t="n">
-        <v>182.3354444995033</v>
+        <v>182.3354444995034</v>
       </c>
       <c r="H40" t="n">
-        <v>111.3898051116266</v>
+        <v>111.3898051116267</v>
       </c>
       <c r="I40" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J40" t="n">
-        <v>145.6340613395127</v>
+        <v>145.6340613395128</v>
       </c>
       <c r="K40" t="n">
-        <v>342.8853558521602</v>
+        <v>342.8853558521603</v>
       </c>
       <c r="L40" t="n">
-        <v>628.3285619581842</v>
+        <v>628.3285619581843</v>
       </c>
       <c r="M40" t="n">
-        <v>935.3045368233612</v>
+        <v>935.3045368233613</v>
       </c>
       <c r="N40" t="n">
         <v>1242.328733841737</v>
@@ -7354,7 +7354,7 @@
         <v>1833.558070917654</v>
       </c>
       <c r="R40" t="n">
-        <v>1791.381113946252</v>
+        <v>1791.381113946253</v>
       </c>
       <c r="S40" t="n">
         <v>1668.431155632899</v>
@@ -7363,19 +7363,19 @@
         <v>1525.471865807019</v>
       </c>
       <c r="U40" t="n">
-        <v>1318.405854241178</v>
+        <v>1318.405854241179</v>
       </c>
       <c r="V40" t="n">
-        <v>1145.799982503771</v>
+        <v>1145.799982503772</v>
       </c>
       <c r="W40" t="n">
-        <v>938.461428935291</v>
+        <v>938.4614289352916</v>
       </c>
       <c r="X40" t="n">
-        <v>792.5504945057539</v>
+        <v>792.5504945057545</v>
       </c>
       <c r="Y40" t="n">
-        <v>653.8365318307044</v>
+        <v>653.8365318307046</v>
       </c>
     </row>
     <row r="41">
@@ -7388,55 +7388,55 @@
         <v>1862.212463859198</v>
       </c>
       <c r="C41" t="n">
-        <v>1575.328563387266</v>
+        <v>1575.328563387267</v>
       </c>
       <c r="D41" t="n">
         <v>1299.141481248996</v>
       </c>
       <c r="E41" t="n">
-        <v>995.4318451192318</v>
+        <v>995.4318451192321</v>
       </c>
       <c r="F41" t="n">
-        <v>666.5245567981044</v>
+        <v>666.5245567981049</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8239018332997</v>
+        <v>331.8239018333002</v>
       </c>
       <c r="H41" t="n">
-        <v>98.83893449434817</v>
+        <v>98.83893449434814</v>
       </c>
       <c r="I41" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J41" t="n">
-        <v>120.0160333799471</v>
+        <v>287.4216824003002</v>
       </c>
       <c r="K41" t="n">
-        <v>340.587285155524</v>
+        <v>729.3515172952384</v>
       </c>
       <c r="L41" t="n">
-        <v>941.1169509940476</v>
+        <v>1151.308791747353</v>
       </c>
       <c r="M41" t="n">
-        <v>1625.92845939127</v>
+        <v>1836.120300144576</v>
       </c>
       <c r="N41" t="n">
-        <v>2307.188936396937</v>
+        <v>2517.380777150242</v>
       </c>
       <c r="O41" t="n">
-        <v>2905.296248730012</v>
+        <v>3115.488089483318</v>
       </c>
       <c r="P41" t="n">
-        <v>3378.09261919703</v>
+        <v>3588.284459950336</v>
       </c>
       <c r="Q41" t="n">
-        <v>3655.921243567676</v>
+        <v>3655.921243567677</v>
       </c>
       <c r="R41" t="n">
-        <v>3655.921243567676</v>
+        <v>3655.921243567677</v>
       </c>
       <c r="S41" t="n">
-        <v>3588.815001684414</v>
+        <v>3588.815001684415</v>
       </c>
       <c r="T41" t="n">
         <v>3457.44426039144</v>
@@ -7454,7 +7454,7 @@
         <v>2474.794402962171</v>
       </c>
       <c r="Y41" t="n">
-        <v>2166.733687454839</v>
+        <v>2166.73368745484</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>113.3400340926073</v>
       </c>
       <c r="I42" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J42" t="n">
-        <v>207.0625972483019</v>
+        <v>82.23247226129725</v>
       </c>
       <c r="K42" t="n">
-        <v>562.6153652692032</v>
+        <v>437.7852402821985</v>
       </c>
       <c r="L42" t="n">
-        <v>734.9723942465615</v>
+        <v>977.2742111099815</v>
       </c>
       <c r="M42" t="n">
-        <v>955.4617856795494</v>
+        <v>1307.118524838463</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.744470732973</v>
+        <v>1547.852259291769</v>
       </c>
       <c r="O42" t="n">
-        <v>1927.803981190797</v>
+        <v>2135.780496049287</v>
       </c>
       <c r="P42" t="n">
-        <v>2382.665156180247</v>
+        <v>2590.641671038738</v>
       </c>
       <c r="Q42" t="n">
         <v>2634.030036353598</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.2666834689454</v>
+        <v>554.2666834689437</v>
       </c>
       <c r="C43" t="n">
-        <v>467.4091170095187</v>
+        <v>467.4091170095171</v>
       </c>
       <c r="D43" t="n">
-        <v>399.3710940656632</v>
+        <v>399.3710940656616</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5366169517504</v>
+        <v>333.5366169517488</v>
       </c>
       <c r="F43" t="n">
-        <v>268.7252859223203</v>
+        <v>268.7252859223187</v>
       </c>
       <c r="G43" t="n">
-        <v>182.3354444995035</v>
+        <v>182.3354444995019</v>
       </c>
       <c r="H43" t="n">
-        <v>111.3898051116267</v>
+        <v>111.3898051116253</v>
       </c>
       <c r="I43" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J43" t="n">
-        <v>145.6340613395126</v>
+        <v>145.6340613395125</v>
       </c>
       <c r="K43" t="n">
-        <v>342.8853558521601</v>
+        <v>342.88535585216</v>
       </c>
       <c r="L43" t="n">
-        <v>628.3285619581841</v>
+        <v>628.3285619581839</v>
       </c>
       <c r="M43" t="n">
         <v>935.3045368233609</v>
@@ -7594,25 +7594,25 @@
         <v>1791.381113946252</v>
       </c>
       <c r="S43" t="n">
-        <v>1668.4311556329</v>
+        <v>1668.431155632899</v>
       </c>
       <c r="T43" t="n">
         <v>1525.471865807019</v>
       </c>
       <c r="U43" t="n">
-        <v>1318.405854241179</v>
+        <v>1318.405854241177</v>
       </c>
       <c r="V43" t="n">
-        <v>1145.799982503772</v>
+        <v>1145.79998250377</v>
       </c>
       <c r="W43" t="n">
-        <v>938.4614289352918</v>
+        <v>938.4614289352901</v>
       </c>
       <c r="X43" t="n">
-        <v>792.5504945057547</v>
+        <v>792.550494505753</v>
       </c>
       <c r="Y43" t="n">
-        <v>653.8365318307049</v>
+        <v>653.8365318307032</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1862.212463859196</v>
+        <v>1862.212463859198</v>
       </c>
       <c r="C44" t="n">
-        <v>1575.328563387265</v>
+        <v>1575.328563387267</v>
       </c>
       <c r="D44" t="n">
-        <v>1299.141481248995</v>
+        <v>1299.141481248996</v>
       </c>
       <c r="E44" t="n">
-        <v>995.4318451192312</v>
+        <v>995.4318451192321</v>
       </c>
       <c r="F44" t="n">
-        <v>666.5245567981044</v>
+        <v>666.5245567981049</v>
       </c>
       <c r="G44" t="n">
-        <v>331.8239018332997</v>
+        <v>331.8239018333002</v>
       </c>
       <c r="H44" t="n">
-        <v>98.83893449434811</v>
+        <v>98.83893449434814</v>
       </c>
       <c r="I44" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J44" t="n">
-        <v>120.0160333799471</v>
+        <v>287.4216824003002</v>
       </c>
       <c r="K44" t="n">
-        <v>550.7791259088293</v>
+        <v>408.4475588497853</v>
       </c>
       <c r="L44" t="n">
-        <v>1151.308791747353</v>
+        <v>1008.977224688309</v>
       </c>
       <c r="M44" t="n">
-        <v>1836.120300144576</v>
+        <v>1693.788733085531</v>
       </c>
       <c r="N44" t="n">
-        <v>2517.380777150242</v>
+        <v>2375.049210091198</v>
       </c>
       <c r="O44" t="n">
-        <v>3115.488089483318</v>
+        <v>2973.156522424274</v>
       </c>
       <c r="P44" t="n">
-        <v>3588.284459950336</v>
+        <v>3378.09261919703</v>
       </c>
       <c r="Q44" t="n">
-        <v>3655.921243567676</v>
+        <v>3655.921243567677</v>
       </c>
       <c r="R44" t="n">
-        <v>3655.921243567676</v>
+        <v>3655.921243567677</v>
       </c>
       <c r="S44" t="n">
-        <v>3588.815001684414</v>
+        <v>3588.815001684415</v>
       </c>
       <c r="T44" t="n">
         <v>3457.44426039144</v>
       </c>
       <c r="U44" t="n">
-        <v>3285.855854431494</v>
+        <v>3285.855854431495</v>
       </c>
       <c r="V44" t="n">
-        <v>3036.871583556403</v>
+        <v>3036.871583556404</v>
       </c>
       <c r="W44" t="n">
-        <v>2766.181544754769</v>
+        <v>2766.181544754771</v>
       </c>
       <c r="X44" t="n">
-        <v>2474.794402962169</v>
+        <v>2474.794402962171</v>
       </c>
       <c r="Y44" t="n">
-        <v>2166.733687454838</v>
+        <v>2166.73368745484</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>113.3400340926073</v>
       </c>
       <c r="I45" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J45" t="n">
-        <v>82.2324722612972</v>
+        <v>82.23247226129725</v>
       </c>
       <c r="K45" t="n">
-        <v>231.7466389695083</v>
+        <v>175.9646556397457</v>
       </c>
       <c r="L45" t="n">
-        <v>404.1036679468667</v>
+        <v>612.080182805357</v>
       </c>
       <c r="M45" t="n">
-        <v>624.5930593798545</v>
+        <v>832.5695742383449</v>
       </c>
       <c r="N45" t="n">
-        <v>1339.875744433278</v>
+        <v>1547.852259291769</v>
       </c>
       <c r="O45" t="n">
-        <v>1927.803981190797</v>
+        <v>2135.780496049287</v>
       </c>
       <c r="P45" t="n">
-        <v>2382.665156180247</v>
+        <v>2590.641671038738</v>
       </c>
       <c r="Q45" t="n">
         <v>2634.030036353598</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>554.2666834689451</v>
+        <v>554.2666834689452</v>
       </c>
       <c r="C46" t="n">
-        <v>467.4091170095184</v>
+        <v>467.4091170095186</v>
       </c>
       <c r="D46" t="n">
-        <v>399.371094065663</v>
+        <v>399.3710940656631</v>
       </c>
       <c r="E46" t="n">
-        <v>333.5366169517501</v>
+        <v>333.5366169517503</v>
       </c>
       <c r="F46" t="n">
-        <v>268.7252859223201</v>
+        <v>268.7252859223202</v>
       </c>
       <c r="G46" t="n">
         <v>182.3354444995034</v>
       </c>
       <c r="H46" t="n">
-        <v>111.3898051116266</v>
+        <v>111.3898051116267</v>
       </c>
       <c r="I46" t="n">
-        <v>73.11842487135353</v>
+        <v>73.11842487135354</v>
       </c>
       <c r="J46" t="n">
-        <v>145.6340613395133</v>
+        <v>145.6340613395128</v>
       </c>
       <c r="K46" t="n">
-        <v>342.8853558521608</v>
+        <v>342.8853558521603</v>
       </c>
       <c r="L46" t="n">
-        <v>628.3285619581848</v>
+        <v>628.3285619581843</v>
       </c>
       <c r="M46" t="n">
-        <v>935.3045368233617</v>
+        <v>935.3045368233613</v>
       </c>
       <c r="N46" t="n">
         <v>1242.328733841737</v>
       </c>
       <c r="O46" t="n">
-        <v>1516.040018916721</v>
+        <v>1516.040018916722</v>
       </c>
       <c r="P46" t="n">
         <v>1738.337067722526</v>
@@ -7843,13 +7843,13 @@
         <v>1145.799982503772</v>
       </c>
       <c r="W46" t="n">
-        <v>938.4614289352915</v>
+        <v>938.4614289352916</v>
       </c>
       <c r="X46" t="n">
-        <v>792.5504945057544</v>
+        <v>792.5504945057545</v>
       </c>
       <c r="Y46" t="n">
-        <v>653.8365318307045</v>
+        <v>653.8365318307046</v>
       </c>
     </row>
   </sheetData>
@@ -8456,7 +8456,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M8" t="n">
         <v>245.6489707424078</v>
@@ -8465,7 +8465,7 @@
         <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>244.7826565119678</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>153.2388248701553</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>155.2845116011566</v>
@@ -8693,16 +8693,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>95.82851417610857</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>27.11516194601964</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>391.7515638640631</v>
       </c>
       <c r="O12" t="n">
-        <v>168.1535136706667</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>55.86111112839342</v>
       </c>
       <c r="L14" t="n">
-        <v>95.82851417610885</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>46.53075245840066</v>
+        <v>46.53075245840063</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>168.1535136706674</v>
+        <v>168.1535136706667</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>67.22716767384384</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,16 +9176,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>30.36613438613702</v>
       </c>
       <c r="R17" t="n">
-        <v>46.53075245840066</v>
+        <v>46.53075245840063</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.7327810867129</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>317.5750551303384</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>110.4595174701948</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>180.2770821436308</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>30.36613438613702</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>46.53075245840063</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>168.1535136706673</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>168.1535136706667</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>104.4646230718545</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>244.3484671724297</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>46.53075245840066</v>
+        <v>46.53075245840063</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>168.1535136706669</v>
+        <v>7.27390796705032</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>168.1535136706673</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>227.6824593727108</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119854</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>374.9247544827738</v>
       </c>
       <c r="N30" t="n">
-        <v>168.1535136706674</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>108.5039575363886</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>261.2060505357966</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>168.1535136706673</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>227.6824593727113</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>100.5508841677691</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>122.2368878413366</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>46.53075245840066</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,16 +10665,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>280.0600360362331</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.4595174701958</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>312.254450258441</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,16 +10835,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>310.519170427992</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>46.53075245840066</v>
+        <v>46.53075245840063</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>227.682459372711</v>
       </c>
       <c r="O39" t="n">
-        <v>168.1535136706674</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>100.5508841677695</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>237.2850616348861</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.53075245840066</v>
+        <v>46.53075245840063</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>110.4595174701953</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>59.65148463057278</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>312.8658748276739</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>253.2529771671782</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>46.53075245840066</v>
+        <v>46.53075245840063</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>56.34543770683106</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>266.4227254426798</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>300.6725397684663</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>231.1078964290025</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>230.6551176655624</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.0570338800447</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>150.5781526908068</v>
       </c>
       <c r="W11" t="n">
-        <v>267.9831384136176</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>288.4732703746736</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>300.6725397684663</v>
       </c>
       <c r="F14" t="n">
-        <v>325.618215437916</v>
+        <v>112.9155787702499</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>230.6551176655624</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.46330452676462</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.43517946442935</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>130.0570338800447</v>
       </c>
       <c r="U14" t="n">
-        <v>9.670007415078572</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>267.9831384136176</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>300.1549109111513</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,19 +23780,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.97187493766469</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>76.6872208608001</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>144.4092173735817</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>221.0311236395748</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>52.3736656964615</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>51.21727877909849</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>300.1549109111513</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>76.68722086080024</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.97187493766469</v>
+        <v>40.97187493766471</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>104.5937293532801</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>221.0311236395748</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>94.26967354450673</v>
+        <v>94.26967354450682</v>
       </c>
       <c r="E28" t="n">
-        <v>92.08816317286355</v>
+        <v>92.08816317286363</v>
       </c>
       <c r="F28" t="n">
-        <v>75.99788901250172</v>
+        <v>91.07524854922571</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>112.4379738386785</v>
       </c>
       <c r="H28" t="n">
-        <v>97.1482138240878</v>
+        <v>97.14821382408789</v>
       </c>
       <c r="I28" t="n">
-        <v>64.80069726796022</v>
+        <v>64.80069726796029</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.66721823177701</v>
+        <v>68.66721823177708</v>
       </c>
       <c r="S28" t="n">
-        <v>148.6324895603099</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>21.11715618490857</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>78.62423795757252</v>
+        <v>112.9010216249223</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>94.26967354450682</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>92.08816317286363</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>91.07524854922571</v>
       </c>
       <c r="G31" t="n">
-        <v>112.4379738386785</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>33.9705299304026</v>
       </c>
       <c r="I31" t="n">
-        <v>64.80069726796036</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.66721823177716</v>
+        <v>68.66721823177708</v>
       </c>
       <c r="S31" t="n">
-        <v>148.6324895603101</v>
+        <v>148.63248956031</v>
       </c>
       <c r="T31" t="n">
-        <v>168.4417277577113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>121.527056458316</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>108.9418973750065</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>90.31054929459107</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>88.12903892294788</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>12.75744614584957</v>
       </c>
       <c r="I34" t="n">
-        <v>21.4956004232003</v>
+        <v>60.84157301804455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>64.70809398186134</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>164.4826035077955</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>193.8327196002068</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>167.4047316654159</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.286082351725781e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.691091711109038e-12</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>769477.4484268492</v>
+        <v>769477.448426849</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769477.4484268492</v>
+        <v>769477.448426849</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797600.3951114344</v>
+        <v>797600.3951114342</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797600.3951114344</v>
+        <v>797600.3951114343</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>846413.5460477603</v>
+        <v>846413.5460477604</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849474.0125458478</v>
+        <v>849474.0125458479</v>
       </c>
     </row>
     <row r="14">
@@ -26314,7 +26314,7 @@
         <v>675902.9794415568</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.9794415568</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380338</v>
@@ -26323,22 +26323,22 @@
         <v>624838.9861933247</v>
       </c>
       <c r="F2" t="n">
-        <v>624838.9861933247</v>
+        <v>624838.9861933244</v>
       </c>
       <c r="G2" t="n">
-        <v>649921.6143174139</v>
+        <v>649921.6143174137</v>
       </c>
       <c r="H2" t="n">
-        <v>649921.6143174141</v>
+        <v>649921.6143174137</v>
       </c>
       <c r="I2" t="n">
-        <v>677359.4601380343</v>
+        <v>677359.4601380344</v>
       </c>
       <c r="J2" t="n">
-        <v>664655.6941146774</v>
+        <v>664655.6941146777</v>
       </c>
       <c r="K2" t="n">
-        <v>664655.6941146764</v>
+        <v>664655.6941146776</v>
       </c>
       <c r="L2" t="n">
         <v>666524.5901651415</v>
@@ -26347,13 +26347,13 @@
         <v>677359.4601380348</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.4601380345</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.4601380348</v>
+        <v>677359.4601380347</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>4753.489354326401</v>
       </c>
       <c r="E3" t="n">
-        <v>809638.664030507</v>
+        <v>809638.6640305067</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20370.64362141172</v>
+        <v>20370.64362141169</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28629.53990884038</v>
+        <v>28629.53990884059</v>
       </c>
       <c r="J3" t="n">
-        <v>76073.26653620481</v>
+        <v>76073.26653620478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>23537.94302134432</v>
+        <v>23537.94302134429</v>
       </c>
       <c r="M3" t="n">
-        <v>168851.2033001081</v>
+        <v>168851.203300108</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23105.99595755273</v>
+        <v>23105.99595755274</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,16 +26430,16 @@
         <v>151554.9662316957</v>
       </c>
       <c r="G4" t="n">
-        <v>168779.8238588375</v>
+        <v>168779.8238588374</v>
       </c>
       <c r="H4" t="n">
-        <v>168779.8238588375</v>
+        <v>168779.8238588374</v>
       </c>
       <c r="I4" t="n">
-        <v>179859.0355168101</v>
+        <v>179859.03551681</v>
       </c>
       <c r="J4" t="n">
-        <v>156270.9625112522</v>
+        <v>156270.9625112521</v>
       </c>
       <c r="K4" t="n">
         <v>156270.9625112521</v>
@@ -26451,13 +26451,13 @@
         <v>172762.3689926357</v>
       </c>
       <c r="N4" t="n">
-        <v>172762.3689926358</v>
+        <v>172762.3689926357</v>
       </c>
       <c r="O4" t="n">
         <v>172762.3689926357</v>
       </c>
       <c r="P4" t="n">
-        <v>172762.3689926358</v>
+        <v>172762.3689926357</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>64465.49687375307</v>
+        <v>64465.49687375304</v>
       </c>
       <c r="F5" t="n">
-        <v>64465.49687375307</v>
+        <v>64465.49687375304</v>
       </c>
       <c r="G5" t="n">
-        <v>66606.17142201363</v>
+        <v>66606.17142201361</v>
       </c>
       <c r="H5" t="n">
-        <v>66606.17142201363</v>
+        <v>66606.17142201361</v>
       </c>
       <c r="I5" t="n">
-        <v>73152.01032325685</v>
+        <v>73152.01032325687</v>
       </c>
       <c r="J5" t="n">
-        <v>81057.23401618334</v>
+        <v>81057.23401618336</v>
       </c>
       <c r="K5" t="n">
         <v>81057.23401618336</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227502.9808285979</v>
+        <v>227498.5672507298</v>
       </c>
       <c r="C6" t="n">
-        <v>227502.9808285976</v>
+        <v>227498.5672507298</v>
       </c>
       <c r="D6" t="n">
         <v>224328.3500761215</v>
       </c>
       <c r="E6" t="n">
-        <v>-400820.1409426311</v>
+        <v>-400979.2938939783</v>
       </c>
       <c r="F6" t="n">
-        <v>408818.5230878759</v>
+        <v>408659.3701365282</v>
       </c>
       <c r="G6" t="n">
-        <v>394164.975415151</v>
+        <v>394081.8304278158</v>
       </c>
       <c r="H6" t="n">
-        <v>414535.619036563</v>
+        <v>414452.4740492274</v>
       </c>
       <c r="I6" t="n">
-        <v>395718.8743891271</v>
+        <v>395718.874389127</v>
       </c>
       <c r="J6" t="n">
-        <v>351254.231051037</v>
+        <v>351215.7347903607</v>
       </c>
       <c r="K6" t="n">
-        <v>427327.497587241</v>
+        <v>427289.0013265653</v>
       </c>
       <c r="L6" t="n">
-        <v>403829.9081765029</v>
+        <v>403797.0752371912</v>
       </c>
       <c r="M6" t="n">
-        <v>258750.596770251</v>
+        <v>258750.5967702511</v>
       </c>
       <c r="N6" t="n">
-        <v>427601.8000703588</v>
+        <v>427601.800070358</v>
       </c>
       <c r="O6" t="n">
-        <v>404495.8041128065</v>
+        <v>404495.8041128063</v>
       </c>
       <c r="P6" t="n">
-        <v>427601.8000703577</v>
+        <v>427601.8000703581</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="F2" t="n">
         <v>81.25783030379549</v>
@@ -26707,25 +26707,25 @@
         <v>106.7211348305601</v>
       </c>
       <c r="J2" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="K2" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="L2" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="M2" t="n">
         <v>81.25783030379547</v>
       </c>
       <c r="N2" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="O2" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="P2" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
     </row>
     <row r="3">
@@ -26747,37 +26747,37 @@
         <v>669.4506255505256</v>
       </c>
       <c r="F3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="G3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="H3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="I3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="J3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="K3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="L3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="M3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="N3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="O3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
       <c r="P3" t="n">
-        <v>669.4506255505255</v>
+        <v>669.4506255505256</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>707.8981694233853</v>
+        <v>707.8981694233848</v>
       </c>
       <c r="F4" t="n">
-        <v>707.8981694233853</v>
+        <v>707.8981694233848</v>
       </c>
       <c r="G4" t="n">
-        <v>707.8981694233853</v>
+        <v>707.8981694233848</v>
       </c>
       <c r="H4" t="n">
-        <v>707.8981694233853</v>
+        <v>707.8981694233848</v>
       </c>
       <c r="I4" t="n">
-        <v>815.5599934569907</v>
+        <v>815.559993456991</v>
       </c>
       <c r="J4" t="n">
         <v>1018.000219789917</v>
@@ -26820,16 +26820,16 @@
         <v>1002.697482274782</v>
       </c>
       <c r="M4" t="n">
-        <v>913.980310891919</v>
+        <v>913.9803108919192</v>
       </c>
       <c r="N4" t="n">
-        <v>913.9803108919191</v>
+        <v>913.9803108919192</v>
       </c>
       <c r="O4" t="n">
-        <v>913.9803108919191</v>
+        <v>913.9803108919192</v>
       </c>
       <c r="P4" t="n">
-        <v>913.9803108919191</v>
+        <v>913.9803108919192</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.46330452676465</v>
+        <v>25.46330452676462</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.88249494694097</v>
+        <v>28.88249494694092</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.4224287766804</v>
+        <v>29.42242877668036</v>
       </c>
       <c r="M2" t="n">
-        <v>22.95290658017424</v>
+        <v>22.95290658017419</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.88249494694091</v>
+        <v>28.88249494694092</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>692.5954319082502</v>
+        <v>692.5954319082498</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.6618240336054</v>
+        <v>107.6618240336062</v>
       </c>
       <c r="J4" t="n">
         <v>202.4402263329258</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>603.8782605253874</v>
+        <v>603.8782605253873</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.46330452676465</v>
+        <v>25.46330452676462</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.88249494694097</v>
+        <v>28.88249494694092</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>692.5954319082502</v>
+        <v>692.5954319082498</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>347.8416414713743</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>195.1731520552709</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.461337365826385</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27935,13 +27935,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>74.09389533628003</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>87.42577427557005</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>187.4326688177485</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.3533289786064</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.1312251314341</v>
+        <v>132.9553114432382</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>146.9244349923045</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="C11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="D11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="E11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="F11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="G11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="H11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="I11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="T11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="U11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="V11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="W11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="X11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="Y11" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="C13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="D13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="E13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="F13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="G13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="H13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="I13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="J13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="K13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="L13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="M13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="N13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="O13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="P13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="R13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="S13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="T13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="U13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="V13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="W13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="X13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.25783030379547</v>
+        <v>81.25783030379549</v>
       </c>
     </row>
     <row r="14">
@@ -28746,25 +28746,25 @@
         <v>106.7211348305601</v>
       </c>
       <c r="K19" t="n">
-        <v>20.93536876125026</v>
+        <v>20.93536876125052</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>106.7211348305601</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>106.7211348305601</v>
@@ -28980,28 +28980,28 @@
         <v>106.7211348305601</v>
       </c>
       <c r="J22" t="n">
-        <v>8.009712659190214</v>
+        <v>20.93536876125036</v>
       </c>
       <c r="K22" t="n">
-        <v>12.92565610206006</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>106.7211348305601</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Q22" t="n">
         <v>106.7211348305601</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>106.7211348305601</v>
@@ -29217,16 +29217,16 @@
         <v>106.7211348305601</v>
       </c>
       <c r="J25" t="n">
-        <v>20.93536876125033</v>
+        <v>8.0097126591902</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7211348305601</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>106.7211348305601</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>12.92565610206037</v>
       </c>
       <c r="Q25" t="n">
         <v>106.7211348305601</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="C26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="D26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="E26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="F26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="G26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="H26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="I26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="T26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="U26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="V26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="W26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="X26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="Y26" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="C28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="D28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="E28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="F28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="G28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="H28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="I28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="J28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="K28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="L28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="M28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="N28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="O28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="P28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="R28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="S28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="T28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="U28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="V28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="W28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="X28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.34579947370563</v>
+        <v>54.34579947370554</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="C29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="D29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="E29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="F29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="G29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="H29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="I29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="T29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="U29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="V29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="W29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="X29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="Y29" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="C31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="D31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="E31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="F31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="G31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="H31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="I31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="J31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="K31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="L31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="M31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="N31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="O31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="P31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="Q31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="R31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="S31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="T31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="U31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="V31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="W31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="X31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
       <c r="Y31" t="n">
-        <v>54.34579947370548</v>
+        <v>54.34579947370554</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="C32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="D32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="E32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="F32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="G32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="H32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="I32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="T32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="U32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="V32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="W32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="X32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="Y32" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="C34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="D34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="E34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="F34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="G34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="H34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="I34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="J34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="K34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="L34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="M34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="N34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="O34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="P34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="R34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="S34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="T34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="U34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="V34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="W34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="X34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.30492372362124</v>
+        <v>58.30492372362129</v>
       </c>
     </row>
     <row r="35">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="C38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="D38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="E38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="F38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="G38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="H38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="I38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="T38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="U38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="V38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="W38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="X38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="C40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="D40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="E40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="F40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="G40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="H40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="I40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="J40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="K40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="L40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="M40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="N40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="O40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="P40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379611</v>
       </c>
       <c r="R40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="S40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="T40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="U40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="V40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="W40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="X40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="C41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="D41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="E41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="F41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="G41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="H41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="I41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="T41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="U41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="V41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="W41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="X41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="C43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="D43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="E43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="F43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="G43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="H43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="I43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="J43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="K43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="L43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="M43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="N43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="O43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="P43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="R43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="S43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="T43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="U43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="V43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="W43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="X43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.25783030379543</v>
+        <v>81.25783030379546</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="C44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="D44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="E44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="F44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="G44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="H44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="I44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="T44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="U44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="V44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="W44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="X44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="C46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="D46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="E46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="F46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="G46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="H46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="I46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="J46" t="n">
-        <v>81.25783030379601</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="K46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="L46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="M46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="N46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="O46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379614</v>
       </c>
       <c r="P46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="R46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="S46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="T46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="U46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="V46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="W46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="X46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.25783030379549</v>
+        <v>81.25783030379546</v>
       </c>
     </row>
   </sheetData>
@@ -32002,31 +32002,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L14" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M14" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N14" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O14" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P14" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R14" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S14" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T14" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U14" t="n">
         <v>0.2153007036946412</v>
@@ -32072,43 +32072,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I15" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J15" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K15" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L15" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M15" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N15" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O15" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P15" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q15" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R15" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S15" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T15" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I16" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J16" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K16" t="n">
         <v>140.2553933530445</v>
@@ -32163,31 +32163,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M16" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N16" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O16" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P16" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R16" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S16" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T16" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32239,31 +32239,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L17" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M17" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N17" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O17" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P17" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R17" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S17" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T17" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U17" t="n">
         <v>0.2153007036946412</v>
@@ -32309,43 +32309,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I18" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J18" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K18" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L18" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M18" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N18" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O18" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P18" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q18" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R18" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S18" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T18" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I19" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J19" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K19" t="n">
         <v>140.2553933530445</v>
@@ -32400,31 +32400,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M19" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N19" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O19" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P19" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R19" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S19" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T19" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32476,31 +32476,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L20" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M20" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N20" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O20" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P20" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q20" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R20" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S20" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T20" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U20" t="n">
         <v>0.2153007036946412</v>
@@ -32546,43 +32546,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I21" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J21" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K21" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L21" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M21" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N21" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O21" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P21" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q21" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R21" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S21" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T21" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I22" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J22" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K22" t="n">
         <v>140.2553933530445</v>
@@ -32637,31 +32637,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M22" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N22" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O22" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P22" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R22" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S22" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T22" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32713,31 +32713,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L23" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M23" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N23" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O23" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P23" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q23" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R23" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S23" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T23" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U23" t="n">
         <v>0.2153007036946412</v>
@@ -32783,43 +32783,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I24" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J24" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K24" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L24" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M24" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N24" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O24" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P24" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q24" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R24" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S24" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T24" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I25" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J25" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K25" t="n">
         <v>140.2553933530445</v>
@@ -32874,31 +32874,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M25" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N25" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O25" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P25" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R25" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S25" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T25" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32950,31 +32950,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L26" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M26" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N26" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O26" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P26" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R26" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S26" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T26" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U26" t="n">
         <v>0.2153007036946412</v>
@@ -33020,43 +33020,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I27" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J27" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K27" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L27" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M27" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N27" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O27" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P27" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q27" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R27" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S27" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T27" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I28" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J28" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K28" t="n">
         <v>140.2553933530445</v>
@@ -33111,31 +33111,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M28" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N28" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O28" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P28" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R28" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S28" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T28" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33187,31 +33187,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L29" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M29" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N29" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O29" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P29" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R29" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S29" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T29" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U29" t="n">
         <v>0.2153007036946412</v>
@@ -33257,43 +33257,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I30" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J30" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K30" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L30" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M30" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N30" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O30" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P30" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q30" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R30" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S30" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T30" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I31" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J31" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K31" t="n">
         <v>140.2553933530445</v>
@@ -33348,31 +33348,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M31" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N31" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O31" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P31" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R31" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S31" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T31" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33424,31 +33424,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L32" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M32" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N32" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O32" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P32" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q32" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R32" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S32" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T32" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U32" t="n">
         <v>0.2153007036946412</v>
@@ -33494,43 +33494,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I33" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J33" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K33" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L33" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M33" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N33" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O33" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P33" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q33" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R33" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S33" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T33" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I34" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J34" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K34" t="n">
         <v>140.2553933530445</v>
@@ -33585,31 +33585,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M34" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N34" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O34" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P34" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R34" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S34" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T34" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33661,31 +33661,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L35" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M35" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N35" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O35" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P35" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R35" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S35" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T35" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U35" t="n">
         <v>0.2153007036946412</v>
@@ -33731,43 +33731,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I36" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J36" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K36" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L36" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M36" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N36" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O36" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P36" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q36" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R36" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S36" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T36" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I37" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J37" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K37" t="n">
         <v>140.2553933530445</v>
@@ -33822,31 +33822,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M37" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N37" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O37" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P37" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R37" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S37" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T37" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33898,31 +33898,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L38" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M38" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N38" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O38" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P38" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q38" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R38" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S38" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T38" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U38" t="n">
         <v>0.2153007036946412</v>
@@ -33968,43 +33968,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I39" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J39" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K39" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L39" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M39" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N39" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O39" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P39" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q39" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R39" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S39" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T39" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I40" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J40" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K40" t="n">
         <v>140.2553933530445</v>
@@ -34059,31 +34059,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M40" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N40" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O40" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P40" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R40" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S40" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T40" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34135,31 +34135,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L41" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M41" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N41" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O41" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P41" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q41" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R41" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S41" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T41" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U41" t="n">
         <v>0.2153007036946412</v>
@@ -34205,43 +34205,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I42" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J42" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K42" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L42" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M42" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N42" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O42" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P42" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q42" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R42" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S42" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T42" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I43" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J43" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K43" t="n">
         <v>140.2553933530445</v>
@@ -34296,31 +34296,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M43" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N43" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O43" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P43" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R43" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S43" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T43" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34372,31 +34372,31 @@
         <v>342.3382110949655</v>
       </c>
       <c r="L44" t="n">
-        <v>424.7008224786515</v>
+        <v>424.7008224786516</v>
       </c>
       <c r="M44" t="n">
-        <v>472.5614960952712</v>
+        <v>472.5614960952713</v>
       </c>
       <c r="N44" t="n">
-        <v>480.2080351499262</v>
+        <v>480.2080351499263</v>
       </c>
       <c r="O44" t="n">
-        <v>453.4468304953813</v>
+        <v>453.4468304953814</v>
       </c>
       <c r="P44" t="n">
         <v>387.0063789646131</v>
       </c>
       <c r="Q44" t="n">
-        <v>290.6256733263087</v>
+        <v>290.6256733263088</v>
       </c>
       <c r="R44" t="n">
         <v>169.0547853557315</v>
       </c>
       <c r="S44" t="n">
-        <v>61.32705981802052</v>
+        <v>61.32705981802053</v>
       </c>
       <c r="T44" t="n">
-        <v>11.78098538029115</v>
+        <v>11.78098538029116</v>
       </c>
       <c r="U44" t="n">
         <v>0.2153007036946412</v>
@@ -34442,43 +34442,43 @@
         <v>13.9068894100213</v>
       </c>
       <c r="I45" t="n">
-        <v>49.57723972237383</v>
+        <v>49.57723972237384</v>
       </c>
       <c r="J45" t="n">
         <v>136.0437351413573</v>
       </c>
       <c r="K45" t="n">
-        <v>232.5204120839028</v>
+        <v>232.5204120839029</v>
       </c>
       <c r="L45" t="n">
-        <v>312.6523888479129</v>
+        <v>312.652388847913</v>
       </c>
       <c r="M45" t="n">
-        <v>364.8505909250363</v>
+        <v>364.8505909250364</v>
       </c>
       <c r="N45" t="n">
-        <v>374.5071004200058</v>
+        <v>374.5071004200059</v>
       </c>
       <c r="O45" t="n">
         <v>342.6008309833902</v>
       </c>
       <c r="P45" t="n">
-        <v>274.9673710869696</v>
+        <v>274.9673710869697</v>
       </c>
       <c r="Q45" t="n">
         <v>183.8084057171934</v>
       </c>
       <c r="R45" t="n">
-        <v>89.40323637069098</v>
+        <v>89.40323637069099</v>
       </c>
       <c r="S45" t="n">
         <v>26.74644716232523</v>
       </c>
       <c r="T45" t="n">
-        <v>5.804010612084271</v>
+        <v>5.804010612084272</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09473357908733855</v>
+        <v>0.09473357908733857</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>10.73315920964614</v>
       </c>
       <c r="I46" t="n">
-        <v>36.30397818559244</v>
+        <v>36.30397818559245</v>
       </c>
       <c r="J46" t="n">
-        <v>85.34946745748256</v>
+        <v>85.34946745748258</v>
       </c>
       <c r="K46" t="n">
         <v>140.2553933530445</v>
@@ -34533,31 +34533,31 @@
         <v>179.478615250054</v>
       </c>
       <c r="M46" t="n">
-        <v>189.2350350224214</v>
+        <v>189.2350350224215</v>
       </c>
       <c r="N46" t="n">
         <v>184.7354488506886</v>
       </c>
       <c r="O46" t="n">
-        <v>170.633087312452</v>
+        <v>170.6330873124521</v>
       </c>
       <c r="P46" t="n">
-        <v>146.0060839725276</v>
+        <v>146.0060839725277</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.0870444581293</v>
+        <v>101.0870444581294</v>
       </c>
       <c r="R46" t="n">
-        <v>54.28037367168685</v>
+        <v>54.28037367168686</v>
       </c>
       <c r="S46" t="n">
         <v>21.03830900295667</v>
       </c>
       <c r="T46" t="n">
-        <v>5.158062196864702</v>
+        <v>5.158062196864703</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06584760251316651</v>
+        <v>0.06584760251316653</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M8" t="n">
         <v>15.30273751513505</v>
@@ -35185,7 +35185,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>14.68444509028111</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>15.30273751513505</v>
@@ -35413,16 +35413,16 @@
         <v>446.3937726211497</v>
       </c>
       <c r="L11" t="n">
-        <v>284.7629216847729</v>
+        <v>188.9344075086643</v>
       </c>
       <c r="M11" t="n">
-        <v>242.2152628679985</v>
+        <v>691.728796360831</v>
       </c>
       <c r="N11" t="n">
         <v>250.7949715533354</v>
       </c>
       <c r="O11" t="n">
-        <v>604.14880033644</v>
+        <v>250.4637810197143</v>
       </c>
       <c r="P11" t="n">
         <v>477.5720913808262</v>
@@ -35492,19 +35492,19 @@
         <v>359.1442101221224</v>
       </c>
       <c r="L12" t="n">
-        <v>544.938354371498</v>
+        <v>174.0980090680388</v>
       </c>
       <c r="M12" t="n">
-        <v>222.7165570030181</v>
+        <v>688.421620753018</v>
       </c>
       <c r="N12" t="n">
-        <v>243.1653883366726</v>
+        <v>634.9169522007356</v>
       </c>
       <c r="O12" t="n">
-        <v>368.1581002096124</v>
+        <v>200.0045865389458</v>
       </c>
       <c r="P12" t="n">
-        <v>459.4557323125766</v>
+        <v>140.9929636726395</v>
       </c>
       <c r="Q12" t="n">
         <v>253.903919367021</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.24811764460527</v>
+        <v>73.24811764460529</v>
       </c>
       <c r="K13" t="n">
         <v>199.2437318309571</v>
@@ -35580,13 +35580,13 @@
         <v>310.1254515337126</v>
       </c>
       <c r="O13" t="n">
-        <v>276.4760455302872</v>
+        <v>276.4760455302873</v>
       </c>
       <c r="P13" t="n">
-        <v>224.5424735412166</v>
+        <v>224.5424735412167</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.18283151023046</v>
+        <v>96.18283151023047</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>216.4679368979259</v>
+        <v>47.37132172585214</v>
       </c>
       <c r="K14" t="n">
-        <v>446.3937726211497</v>
+        <v>178.1094711783784</v>
       </c>
       <c r="L14" t="n">
-        <v>284.7629216847731</v>
+        <v>606.5956220591147</v>
       </c>
       <c r="M14" t="n">
         <v>242.2152628679985</v>
       </c>
       <c r="N14" t="n">
-        <v>250.7949715533353</v>
+        <v>688.1418959653195</v>
       </c>
       <c r="O14" t="n">
         <v>604.14880033644</v>
       </c>
       <c r="P14" t="n">
-        <v>477.5720913808262</v>
+        <v>155.7733832093436</v>
       </c>
       <c r="Q14" t="n">
-        <v>280.6349741117639</v>
+        <v>280.634974111764</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>359.1442101221224</v>
       </c>
       <c r="L15" t="n">
-        <v>544.9383543714979</v>
+        <v>544.938354371498</v>
       </c>
       <c r="M15" t="n">
-        <v>222.716557003018</v>
+        <v>222.7165570030181</v>
       </c>
       <c r="N15" t="n">
-        <v>243.1653883366725</v>
+        <v>243.1653883366726</v>
       </c>
       <c r="O15" t="n">
-        <v>368.1581002096131</v>
+        <v>368.1581002096124</v>
       </c>
       <c r="P15" t="n">
         <v>459.4557323125766</v>
       </c>
       <c r="Q15" t="n">
-        <v>253.9039193670209</v>
+        <v>253.903919367021</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>73.24811764460527</v>
+        <v>73.24811764460529</v>
       </c>
       <c r="K16" t="n">
         <v>199.2437318309571</v>
@@ -35817,13 +35817,13 @@
         <v>310.1254515337126</v>
       </c>
       <c r="O16" t="n">
-        <v>276.4760455302872</v>
+        <v>276.4760455302873</v>
       </c>
       <c r="P16" t="n">
-        <v>224.5424735412166</v>
+        <v>224.5424735412167</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.18283151023044</v>
+        <v>96.18283151023047</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>216.4679368979259</v>
       </c>
       <c r="K17" t="n">
-        <v>189.4755277238287</v>
+        <v>122.248360049985</v>
       </c>
       <c r="L17" t="n">
-        <v>188.9344075086643</v>
+        <v>606.5956220591147</v>
       </c>
       <c r="M17" t="n">
         <v>691.728796360831</v>
@@ -35896,13 +35896,13 @@
         <v>688.1418959653195</v>
       </c>
       <c r="O17" t="n">
-        <v>604.14880033644</v>
+        <v>223.3486190736947</v>
       </c>
       <c r="P17" t="n">
-        <v>155.7733832093435</v>
+        <v>155.7733832093436</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.31998345185926</v>
+        <v>98.68611783799633</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.206108474690581</v>
+        <v>9.206108474690609</v>
       </c>
       <c r="K18" t="n">
-        <v>94.67897310954382</v>
+        <v>359.1442101221224</v>
       </c>
       <c r="L18" t="n">
-        <v>174.0980090680387</v>
+        <v>544.938354371498</v>
       </c>
       <c r="M18" t="n">
-        <v>688.4216207530179</v>
+        <v>222.7165570030181</v>
       </c>
       <c r="N18" t="n">
-        <v>707.8981694233853</v>
+        <v>243.1653883366726</v>
       </c>
       <c r="O18" t="n">
-        <v>517.5796416692841</v>
+        <v>593.8669058156753</v>
       </c>
       <c r="P18" t="n">
-        <v>140.9929636726394</v>
+        <v>459.4557323125766</v>
       </c>
       <c r="Q18" t="n">
-        <v>253.9039193670209</v>
+        <v>154.2861491013667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>98.71142217136992</v>
+        <v>98.7114221713699</v>
       </c>
       <c r="K19" t="n">
-        <v>138.9212702884119</v>
+        <v>138.9212702884122</v>
       </c>
       <c r="L19" t="n">
         <v>207.0686405103702</v>
       </c>
       <c r="M19" t="n">
-        <v>335.5400468148222</v>
+        <v>228.8189119842621</v>
       </c>
       <c r="N19" t="n">
-        <v>228.8676212299171</v>
+        <v>228.8676212299172</v>
       </c>
       <c r="O19" t="n">
         <v>195.2182152264917</v>
       </c>
       <c r="P19" t="n">
-        <v>143.2846432374211</v>
+        <v>143.2846432374212</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.92500120643496</v>
+        <v>121.6461360369951</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>47.37132172585208</v>
+        <v>216.4679368979259</v>
       </c>
       <c r="K20" t="n">
-        <v>302.5254421936157</v>
+        <v>122.248360049985</v>
       </c>
       <c r="L20" t="n">
         <v>606.5956220591147</v>
@@ -36133,16 +36133,16 @@
         <v>688.1418959653195</v>
       </c>
       <c r="O20" t="n">
-        <v>223.3486190736946</v>
+        <v>223.3486190736947</v>
       </c>
       <c r="P20" t="n">
-        <v>155.7733832093435</v>
+        <v>155.7733832093436</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.31998345185926</v>
+        <v>98.68611783799633</v>
       </c>
       <c r="R20" t="n">
-        <v>19.18566741458179</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>359.1442101221224</v>
       </c>
       <c r="L21" t="n">
-        <v>544.9383543714979</v>
+        <v>544.938354371498</v>
       </c>
       <c r="M21" t="n">
-        <v>390.8700706736853</v>
+        <v>222.7165570030181</v>
       </c>
       <c r="N21" t="n">
-        <v>243.1653883366725</v>
+        <v>243.1653883366726</v>
       </c>
       <c r="O21" t="n">
-        <v>200.0045865389457</v>
+        <v>368.1581002096124</v>
       </c>
       <c r="P21" t="n">
         <v>459.4557323125766</v>
       </c>
       <c r="Q21" t="n">
-        <v>253.9039193670209</v>
+        <v>253.903919367021</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.92565610206016</v>
       </c>
       <c r="K22" t="n">
-        <v>130.9115576292217</v>
+        <v>117.9859015271616</v>
       </c>
       <c r="L22" t="n">
-        <v>313.7897753409303</v>
+        <v>207.0686405103702</v>
       </c>
       <c r="M22" t="n">
-        <v>335.5400468148222</v>
+        <v>228.8189119842621</v>
       </c>
       <c r="N22" t="n">
-        <v>228.8676212299171</v>
+        <v>228.8676212299172</v>
       </c>
       <c r="O22" t="n">
         <v>195.2182152264917</v>
       </c>
       <c r="P22" t="n">
-        <v>143.2846432374211</v>
+        <v>250.0057780679813</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.92500120643496</v>
+        <v>121.6461360369951</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>216.4679368979259</v>
       </c>
       <c r="K23" t="n">
-        <v>122.2483600499849</v>
+        <v>446.3937726211497</v>
       </c>
       <c r="L23" t="n">
         <v>606.5956220591147</v>
       </c>
       <c r="M23" t="n">
-        <v>691.728796360831</v>
+        <v>242.2152628679985</v>
       </c>
       <c r="N23" t="n">
-        <v>688.1418959653195</v>
+        <v>355.2595946251898</v>
       </c>
       <c r="O23" t="n">
-        <v>223.3486190736946</v>
+        <v>604.14880033644</v>
       </c>
       <c r="P23" t="n">
-        <v>400.1218503817732</v>
+        <v>477.5720913808262</v>
       </c>
       <c r="Q23" t="n">
-        <v>280.6349741117639</v>
+        <v>280.634974111764</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>359.1442101221224</v>
       </c>
       <c r="L24" t="n">
-        <v>544.9383543714979</v>
+        <v>544.938354371498</v>
       </c>
       <c r="M24" t="n">
-        <v>390.8700706736849</v>
+        <v>229.9904649700684</v>
       </c>
       <c r="N24" t="n">
-        <v>243.1653883366725</v>
+        <v>722.5077626802261</v>
       </c>
       <c r="O24" t="n">
-        <v>200.0045865389457</v>
+        <v>200.0045865389458</v>
       </c>
       <c r="P24" t="n">
-        <v>459.4557323125766</v>
+        <v>140.9929636726395</v>
       </c>
       <c r="Q24" t="n">
-        <v>253.9039193670209</v>
+        <v>253.903919367021</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.92565610206012</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>117.9859015271616</v>
+        <v>224.7070363577217</v>
       </c>
       <c r="L25" t="n">
         <v>207.0686405103702</v>
       </c>
       <c r="M25" t="n">
-        <v>335.5400468148222</v>
+        <v>228.8189119842621</v>
       </c>
       <c r="N25" t="n">
-        <v>228.8676212299171</v>
+        <v>228.8676212299172</v>
       </c>
       <c r="O25" t="n">
         <v>195.2182152264917</v>
       </c>
       <c r="P25" t="n">
-        <v>143.2846432374211</v>
+        <v>156.2102993394815</v>
       </c>
       <c r="Q25" t="n">
         <v>121.6461360369951</v>
@@ -36613,10 +36613,10 @@
         <v>477.5720913808262</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.6349741117639</v>
+        <v>280.634974111764</v>
       </c>
       <c r="R26" t="n">
-        <v>19.18566741458179</v>
+        <v>19.18566741458181</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>135.2971438150994</v>
+        <v>9.206108474690609</v>
       </c>
       <c r="K27" t="n">
-        <v>359.1442101221224</v>
+        <v>94.67897310954388</v>
       </c>
       <c r="L27" t="n">
-        <v>544.9383543714979</v>
+        <v>544.938354371498</v>
       </c>
       <c r="M27" t="n">
-        <v>390.8700706736853</v>
+        <v>688.421620753018</v>
       </c>
       <c r="N27" t="n">
-        <v>243.1653883366725</v>
+        <v>243.1653883366726</v>
       </c>
       <c r="O27" t="n">
-        <v>200.0045865389457</v>
+        <v>593.8669058156753</v>
       </c>
       <c r="P27" t="n">
-        <v>459.4557323125766</v>
+        <v>368.6754230453503</v>
       </c>
       <c r="Q27" t="n">
-        <v>253.9039193670209</v>
+        <v>43.82663163117186</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>46.33608681451541</v>
+        <v>46.33608681451534</v>
       </c>
       <c r="K28" t="n">
         <v>172.3317010008672</v>
       </c>
       <c r="L28" t="n">
-        <v>261.4144399840758</v>
+        <v>261.4144399840757</v>
       </c>
       <c r="M28" t="n">
-        <v>283.1647114579677</v>
+        <v>283.1647114579676</v>
       </c>
       <c r="N28" t="n">
-        <v>283.2134207036228</v>
+        <v>283.2134207036227</v>
       </c>
       <c r="O28" t="n">
         <v>249.5640147001973</v>
       </c>
       <c r="P28" t="n">
-        <v>197.6304427111268</v>
+        <v>197.6304427111267</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.27080068014058</v>
+        <v>69.27080068014052</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>691.728796360831</v>
       </c>
       <c r="N29" t="n">
-        <v>688.1418959653207</v>
+        <v>688.1418959653195</v>
       </c>
       <c r="O29" t="n">
         <v>604.14880033644</v>
@@ -36850,10 +36850,10 @@
         <v>477.5720913808262</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.6349741117639</v>
+        <v>280.634974111764</v>
       </c>
       <c r="R29" t="n">
-        <v>19.18566741458179</v>
+        <v>19.18566741458181</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>135.2971438150994</v>
+        <v>9.206108474690609</v>
       </c>
       <c r="K30" t="n">
-        <v>359.1442101221224</v>
+        <v>94.67897310954388</v>
       </c>
       <c r="L30" t="n">
-        <v>544.9383543714979</v>
+        <v>544.938354371498</v>
       </c>
       <c r="M30" t="n">
-        <v>222.716557003018</v>
+        <v>597.6413114857919</v>
       </c>
       <c r="N30" t="n">
-        <v>411.3189020073398</v>
+        <v>243.1653883366726</v>
       </c>
       <c r="O30" t="n">
-        <v>200.0045865389457</v>
+        <v>593.8669058156753</v>
       </c>
       <c r="P30" t="n">
         <v>459.4557323125766</v>
       </c>
       <c r="Q30" t="n">
-        <v>253.9039193670209</v>
+        <v>43.82663163117186</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>46.33608681451527</v>
+        <v>46.33608681451534</v>
       </c>
       <c r="K31" t="n">
-        <v>172.3317010008671</v>
+        <v>172.3317010008672</v>
       </c>
       <c r="L31" t="n">
         <v>261.4144399840757</v>
       </c>
       <c r="M31" t="n">
-        <v>283.1647114579675</v>
+        <v>283.1647114579676</v>
       </c>
       <c r="N31" t="n">
         <v>283.2134207036227</v>
       </c>
       <c r="O31" t="n">
-        <v>249.5640147001972</v>
+        <v>249.5640147001973</v>
       </c>
       <c r="P31" t="n">
-        <v>197.6304427111266</v>
+        <v>197.6304427111267</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.27080068014044</v>
+        <v>69.27080068014052</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>155.8752792622406</v>
+        <v>216.4679368979259</v>
       </c>
       <c r="K32" t="n">
         <v>446.3937726211497</v>
@@ -37084,13 +37084,13 @@
         <v>604.14880033644</v>
       </c>
       <c r="P32" t="n">
-        <v>477.5720913808262</v>
+        <v>416.9794337451402</v>
       </c>
       <c r="Q32" t="n">
-        <v>280.6349741117639</v>
+        <v>280.634974111764</v>
       </c>
       <c r="R32" t="n">
-        <v>19.18566741458179</v>
+        <v>19.18566741458181</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>135.2971438150994</v>
+        <v>9.206108474690609</v>
       </c>
       <c r="K33" t="n">
-        <v>359.1442101221224</v>
+        <v>94.67897310954388</v>
       </c>
       <c r="L33" t="n">
-        <v>544.9383543714979</v>
+        <v>544.938354371498</v>
       </c>
       <c r="M33" t="n">
-        <v>390.8700706736853</v>
+        <v>688.421620753018</v>
       </c>
       <c r="N33" t="n">
-        <v>243.1653883366725</v>
+        <v>243.1653883366726</v>
       </c>
       <c r="O33" t="n">
-        <v>200.0045865389457</v>
+        <v>593.8669058156753</v>
       </c>
       <c r="P33" t="n">
-        <v>459.4557323125766</v>
+        <v>368.6754230453507</v>
       </c>
       <c r="Q33" t="n">
-        <v>253.9039193670209</v>
+        <v>43.82663163117186</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>50.29521106443102</v>
+        <v>50.29521106443109</v>
       </c>
       <c r="K34" t="n">
         <v>176.2908252507829</v>
       </c>
       <c r="L34" t="n">
-        <v>265.3735642339914</v>
+        <v>265.3735642339915</v>
       </c>
       <c r="M34" t="n">
-        <v>287.1238357078832</v>
+        <v>287.1238357078834</v>
       </c>
       <c r="N34" t="n">
-        <v>287.1725449535384</v>
+        <v>287.1725449535385</v>
       </c>
       <c r="O34" t="n">
         <v>253.523138950113</v>
       </c>
       <c r="P34" t="n">
-        <v>201.5895669610424</v>
+        <v>201.5895669610425</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.2299249300562</v>
+        <v>73.22992493005627</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>47.37132172585208</v>
+        <v>216.4679368979259</v>
       </c>
       <c r="K35" t="n">
-        <v>222.799244217754</v>
+        <v>446.3937726211497</v>
       </c>
       <c r="L35" t="n">
         <v>606.5956220591147</v>
@@ -37321,13 +37321,13 @@
         <v>604.14880033644</v>
       </c>
       <c r="P35" t="n">
-        <v>477.5720913808262</v>
+        <v>278.0102710506802</v>
       </c>
       <c r="Q35" t="n">
-        <v>280.6349741117639</v>
+        <v>68.31998345185931</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>19.18566741458181</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.206108474690581</v>
+        <v>9.206108474690609</v>
       </c>
       <c r="K36" t="n">
-        <v>359.1442101221224</v>
+        <v>94.67897310954388</v>
       </c>
       <c r="L36" t="n">
-        <v>544.9383543714979</v>
+        <v>174.0980090680388</v>
       </c>
       <c r="M36" t="n">
-        <v>222.716557003018</v>
+        <v>688.421620753018</v>
       </c>
       <c r="N36" t="n">
-        <v>243.1653883366725</v>
+        <v>523.2254243729056</v>
       </c>
       <c r="O36" t="n">
-        <v>593.8669058156752</v>
+        <v>593.8669058156753</v>
       </c>
       <c r="P36" t="n">
         <v>459.4557323125766</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.2861491013676</v>
+        <v>43.82663163117186</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.24811764460526</v>
+        <v>73.24811764460527</v>
       </c>
       <c r="K37" t="n">
         <v>199.2437318309571</v>
@@ -37482,7 +37482,7 @@
         <v>224.5424735412166</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.18283151023043</v>
+        <v>96.18283151023046</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>47.37132172585208</v>
+        <v>216.4679368979259</v>
       </c>
       <c r="K38" t="n">
-        <v>446.3937726211497</v>
+        <v>434.5028103084259</v>
       </c>
       <c r="L38" t="n">
         <v>606.5956220591147</v>
@@ -37555,13 +37555,13 @@
         <v>688.1418959653195</v>
       </c>
       <c r="O38" t="n">
-        <v>604.14880033644</v>
+        <v>223.3486190736947</v>
       </c>
       <c r="P38" t="n">
-        <v>466.2925536373356</v>
+        <v>477.5720913808262</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.31998345185926</v>
+        <v>280.634974111764</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>135.2971438150994</v>
+        <v>9.206108474690609</v>
       </c>
       <c r="K39" t="n">
-        <v>359.1442101221224</v>
+        <v>94.67897310954388</v>
       </c>
       <c r="L39" t="n">
-        <v>544.9383543714979</v>
+        <v>544.938354371498</v>
       </c>
       <c r="M39" t="n">
-        <v>222.716557003018</v>
+        <v>688.421620753018</v>
       </c>
       <c r="N39" t="n">
-        <v>243.1653883366725</v>
+        <v>470.8478477093835</v>
       </c>
       <c r="O39" t="n">
-        <v>368.1581002096131</v>
+        <v>593.8669058156753</v>
       </c>
       <c r="P39" t="n">
-        <v>459.4557323125766</v>
+        <v>140.9929636726395</v>
       </c>
       <c r="Q39" t="n">
-        <v>253.9039193670209</v>
+        <v>43.82663163117186</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.24811764460527</v>
+        <v>73.24811764460526</v>
       </c>
       <c r="K40" t="n">
         <v>199.2437318309571</v>
@@ -37719,7 +37719,7 @@
         <v>224.5424735412166</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.18283151023044</v>
+        <v>96.1828315102311</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>47.37132172585208</v>
+        <v>216.4679368979259</v>
       </c>
       <c r="K41" t="n">
-        <v>222.7992442177544</v>
+        <v>446.3937726211497</v>
       </c>
       <c r="L41" t="n">
-        <v>606.5956220591147</v>
+        <v>426.2194691435504</v>
       </c>
       <c r="M41" t="n">
         <v>691.728796360831</v>
@@ -37798,7 +37798,7 @@
         <v>477.5720913808262</v>
       </c>
       <c r="Q41" t="n">
-        <v>280.6349741117639</v>
+        <v>68.31998345185931</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>135.2971438150994</v>
+        <v>9.206108474690609</v>
       </c>
       <c r="K42" t="n">
         <v>359.1442101221224</v>
       </c>
       <c r="L42" t="n">
-        <v>174.0980090680387</v>
+        <v>544.938354371498</v>
       </c>
       <c r="M42" t="n">
-        <v>222.716557003018</v>
+        <v>333.1760744732134</v>
       </c>
       <c r="N42" t="n">
-        <v>722.5077626802261</v>
+        <v>243.1653883366726</v>
       </c>
       <c r="O42" t="n">
-        <v>259.6560711695185</v>
+        <v>593.8669058156753</v>
       </c>
       <c r="P42" t="n">
         <v>459.4557323125766</v>
       </c>
       <c r="Q42" t="n">
-        <v>253.9039193670209</v>
+        <v>43.82663163117186</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.24811764460522</v>
+        <v>73.24811764460526</v>
       </c>
       <c r="K43" t="n">
-        <v>199.243731830957</v>
+        <v>199.2437318309571</v>
       </c>
       <c r="L43" t="n">
         <v>288.3264708141656</v>
@@ -37950,13 +37950,13 @@
         <v>310.1254515337126</v>
       </c>
       <c r="O43" t="n">
-        <v>276.4760455302871</v>
+        <v>276.4760455302872</v>
       </c>
       <c r="P43" t="n">
         <v>224.5424735412166</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.18283151023039</v>
+        <v>96.18283151023044</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>47.37132172585208</v>
+        <v>216.4679368979259</v>
       </c>
       <c r="K44" t="n">
-        <v>435.1142348776588</v>
+        <v>122.248360049985</v>
       </c>
       <c r="L44" t="n">
         <v>606.5956220591147</v>
@@ -38032,10 +38032,10 @@
         <v>604.14880033644</v>
       </c>
       <c r="P44" t="n">
-        <v>477.5720913808262</v>
+        <v>409.0263603765218</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.31998345185926</v>
+        <v>280.634974111764</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9.206108474690581</v>
+        <v>9.206108474690609</v>
       </c>
       <c r="K45" t="n">
-        <v>151.0244108163749</v>
+        <v>94.67897310954388</v>
       </c>
       <c r="L45" t="n">
-        <v>174.0980090680387</v>
+        <v>440.5207345107186</v>
       </c>
       <c r="M45" t="n">
-        <v>222.716557003018</v>
+        <v>222.7165570030181</v>
       </c>
       <c r="N45" t="n">
         <v>722.5077626802261</v>
       </c>
       <c r="O45" t="n">
-        <v>593.8669058156752</v>
+        <v>593.8669058156753</v>
       </c>
       <c r="P45" t="n">
         <v>459.4557323125766</v>
       </c>
       <c r="Q45" t="n">
-        <v>253.9039193670209</v>
+        <v>43.82663163117186</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.2481176446058</v>
+        <v>73.24811764460526</v>
       </c>
       <c r="K46" t="n">
         <v>199.2437318309571</v>
@@ -38187,7 +38187,7 @@
         <v>310.1254515337126</v>
       </c>
       <c r="O46" t="n">
-        <v>276.4760455302872</v>
+        <v>276.4760455302879</v>
       </c>
       <c r="P46" t="n">
         <v>224.5424735412166</v>
